--- a/project_plan.xlsx
+++ b/project_plan.xlsx
@@ -70,6 +70,15 @@
     <t>Requirements/ Constraints</t>
   </si>
   <si>
+    <t>Description of all requirements and constraints</t>
+  </si>
+  <si>
+    <t>Features List</t>
+  </si>
+  <si>
+    <t>A full list of features</t>
+  </si>
+  <si>
     <t>Team</t>
   </si>
   <si>
@@ -82,18 +91,9 @@
     <t>Mohammed Mohammed Ali</t>
   </si>
   <si>
-    <t>Description of all requirements and constraints</t>
-  </si>
-  <si>
     <t>Front end / Scrum Team</t>
   </si>
   <si>
-    <t>Features List</t>
-  </si>
-  <si>
-    <t>A full list of features</t>
-  </si>
-  <si>
     <t>Alaa Obour</t>
   </si>
   <si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t>Backend/ Android / Scrum Master</t>
+  </si>
+  <si>
+    <t>Web</t>
   </si>
   <si>
     <t>Break down</t>
@@ -218,9 +221,6 @@
   </si>
   <si>
     <t>Give user an interface to share a thought outside of the platform.</t>
-  </si>
-  <si>
-    <t>Web</t>
   </si>
   <si>
     <t>Events</t>
@@ -565,6 +565,21 @@
       <name val="Ubuntu"/>
     </font>
     <font>
+      <sz val="36.0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="'Century Gothic'"/>
+    </font>
+    <font>
+      <sz val="36.0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Ubuntu"/>
+    </font>
+    <font>
+      <sz val="18.0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="'Century Gothic'"/>
+    </font>
+    <font>
       <b/>
       <sz val="24.0"/>
       <color rgb="FF20124D"/>
@@ -581,21 +596,6 @@
     <font>
       <sz val="18.0"/>
       <color rgb="FFFFFFFF"/>
-    </font>
-    <font>
-      <sz val="36.0"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="'Century Gothic'"/>
-    </font>
-    <font>
-      <sz val="36.0"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Ubuntu"/>
-    </font>
-    <font>
-      <sz val="18.0"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="'Century Gothic'"/>
     </font>
     <font>
       <b/>
@@ -697,6 +697,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF9900"/>
+        <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3C78D8"/>
+        <bgColor rgb="FF3C78D8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFCFE2F3"/>
         <bgColor rgb="FFCFE2F3"/>
       </patternFill>
@@ -711,18 +723,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF6D9EEB"/>
         <bgColor rgb="FF6D9EEB"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF9900"/>
-        <bgColor rgb="FFFF9900"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF3C78D8"/>
-        <bgColor rgb="FF3C78D8"/>
       </patternFill>
     </fill>
     <fill>
@@ -840,19 +840,11 @@
       <left style="thick">
         <color rgb="FFFFFFFF"/>
       </left>
-      <top style="thick">
-        <color rgb="FFF3F3F3"/>
-      </top>
     </border>
     <border>
       <right style="thick">
         <color rgb="FFFFFFFF"/>
       </right>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFFFFFFF"/>
-      </left>
     </border>
     <border>
       <bottom style="thick">
@@ -874,6 +866,14 @@
       <bottom style="thick">
         <color rgb="FFFFFFFF"/>
       </bottom>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <top style="thick">
+        <color rgb="FFF3F3F3"/>
+      </top>
     </border>
     <border>
       <top style="thick">
@@ -1008,21 +1008,21 @@
     <xf borderId="8" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
+    <xf borderId="9" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="10" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="10" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="12" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="13" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="14" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="6" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="15" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="13" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="15" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="16" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
@@ -1053,88 +1053,88 @@
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="9" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="10" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="18" fillId="8" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="18" fillId="10" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="17" fillId="8" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="17" fillId="10" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="11" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="15" fillId="8" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="10" fontId="14" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="14" fillId="10" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="14" fillId="8" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="13" fillId="10" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="14" fillId="8" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="13" fillId="10" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="10" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="9" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf borderId="0" fillId="10" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="8" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="11" fillId="10" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="10" fillId="10" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="17" fillId="10" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="11" fillId="8" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="18" fillId="10" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="10" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="10" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="10" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="10" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="12" fillId="8" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="17" fillId="8" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="18" fillId="8" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="10" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="10" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="17" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="8" fontId="19" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="8" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="10" fontId="17" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="10" fontId="19" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="10" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="20" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="10" fontId="20" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="11" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
@@ -1171,7 +1171,7 @@
     <xf borderId="0" fillId="14" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="14" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="14" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="22" fillId="15" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
@@ -1200,7 +1200,7 @@
     <xf borderId="22" fillId="16" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="14" fontId="11" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="14" fontId="14" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="22" fillId="15" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
@@ -1611,7 +1611,7 @@
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
       <c r="I24" s="16" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J24" s="14"/>
       <c r="K24" s="14"/>
@@ -1636,7 +1636,7 @@
     </row>
     <row r="27">
       <c r="A27" s="13" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
@@ -1644,45 +1644,38 @@
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
       <c r="G27" s="14"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="23" t="s">
-        <v>21</v>
+      <c r="H27" s="17"/>
+      <c r="I27" s="18" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="28">
-      <c r="H28" s="20"/>
-      <c r="I28" s="21"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="20"/>
     </row>
     <row r="29">
-      <c r="A29" s="22"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="22"/>
-      <c r="N29" s="22"/>
-      <c r="O29" s="22"/>
-      <c r="P29" s="22"/>
+      <c r="A29" s="21"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="21"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="21"/>
     </row>
     <row r="30">
       <c r="A30" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="I27:P29"/>
-    <mergeCell ref="A30:P36"/>
-    <mergeCell ref="I18:P20"/>
-    <mergeCell ref="Q9:S36"/>
-    <mergeCell ref="I24:P26"/>
-    <mergeCell ref="I9:P11"/>
-    <mergeCell ref="I21:P23"/>
     <mergeCell ref="A12:H14"/>
     <mergeCell ref="A9:H11"/>
     <mergeCell ref="A24:H26"/>
@@ -1692,8 +1685,15 @@
     <mergeCell ref="I6:S8"/>
     <mergeCell ref="A1:S5"/>
     <mergeCell ref="A6:H8"/>
+    <mergeCell ref="I27:P29"/>
+    <mergeCell ref="A27:H29"/>
+    <mergeCell ref="A30:P36"/>
+    <mergeCell ref="I18:P20"/>
+    <mergeCell ref="Q9:S36"/>
+    <mergeCell ref="I24:P26"/>
+    <mergeCell ref="I9:P11"/>
+    <mergeCell ref="I21:P23"/>
     <mergeCell ref="A15:H17"/>
-    <mergeCell ref="A27:H29"/>
     <mergeCell ref="A18:H20"/>
   </mergeCells>
   <hyperlinks>
@@ -1718,20 +1718,20 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="17" t="s">
-        <v>17</v>
+      <c r="A9" s="24" t="s">
+        <v>20</v>
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
@@ -1739,9 +1739,9 @@
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="19" t="s">
-        <v>19</v>
+      <c r="H9" s="17"/>
+      <c r="I9" s="25" t="s">
+        <v>21</v>
       </c>
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
@@ -1753,26 +1753,26 @@
       <c r="Q9" s="8"/>
     </row>
     <row r="10">
-      <c r="H10" s="20"/>
-      <c r="I10" s="21"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="20"/>
     </row>
     <row r="11">
-      <c r="A11" s="22"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
     </row>
     <row r="12">
       <c r="A12" s="26" t="s">
@@ -1786,7 +1786,7 @@
       <c r="G12" s="27"/>
       <c r="H12" s="28"/>
       <c r="I12" s="29" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J12" s="27"/>
       <c r="K12" s="27"/>
@@ -1797,26 +1797,26 @@
       <c r="P12" s="27"/>
     </row>
     <row r="13">
-      <c r="H13" s="20"/>
-      <c r="I13" s="21"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="20"/>
     </row>
     <row r="14">
-      <c r="A14" s="22"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
     </row>
     <row r="15">
       <c r="A15" s="26" t="s">
@@ -1841,26 +1841,26 @@
       <c r="P15" s="27"/>
     </row>
     <row r="16">
-      <c r="H16" s="20"/>
-      <c r="I16" s="21"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="20"/>
     </row>
     <row r="17">
-      <c r="A17" s="22"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="22"/>
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
     </row>
     <row r="18">
       <c r="A18" s="26" t="s">
@@ -1885,26 +1885,26 @@
       <c r="P18" s="27"/>
     </row>
     <row r="19">
-      <c r="H19" s="20"/>
-      <c r="I19" s="21"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="20"/>
     </row>
     <row r="20">
-      <c r="A20" s="22"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="22"/>
+      <c r="A20" s="21"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
     </row>
     <row r="21">
       <c r="A21" s="26" t="s">
@@ -1929,26 +1929,26 @@
       <c r="P21" s="27"/>
     </row>
     <row r="22">
-      <c r="H22" s="20"/>
-      <c r="I22" s="21"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="20"/>
     </row>
     <row r="23">
-      <c r="A23" s="22"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="22"/>
-      <c r="P23" s="22"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="21"/>
     </row>
     <row r="24">
       <c r="A24" s="26" t="s">
@@ -1973,26 +1973,26 @@
       <c r="P24" s="27"/>
     </row>
     <row r="25">
-      <c r="H25" s="20"/>
-      <c r="I25" s="21"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="20"/>
     </row>
     <row r="26">
-      <c r="A26" s="22"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="22"/>
-      <c r="O26" s="22"/>
-      <c r="P26" s="22"/>
+      <c r="A26" s="21"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="21"/>
     </row>
     <row r="27">
       <c r="A27" s="30"/>
@@ -2039,16 +2039,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="I18:P20"/>
-    <mergeCell ref="A18:H20"/>
-    <mergeCell ref="A21:H23"/>
-    <mergeCell ref="A24:H26"/>
-    <mergeCell ref="I9:P11"/>
-    <mergeCell ref="Q9:S36"/>
-    <mergeCell ref="I15:P17"/>
     <mergeCell ref="I21:P23"/>
     <mergeCell ref="I24:P26"/>
-    <mergeCell ref="I6:S8"/>
+    <mergeCell ref="A18:H20"/>
     <mergeCell ref="A12:H14"/>
     <mergeCell ref="A15:H17"/>
     <mergeCell ref="I27:P29"/>
@@ -2056,8 +2049,15 @@
     <mergeCell ref="A27:H29"/>
     <mergeCell ref="A6:H8"/>
     <mergeCell ref="A9:H11"/>
+    <mergeCell ref="I6:S8"/>
+    <mergeCell ref="A1:S5"/>
+    <mergeCell ref="I18:P20"/>
+    <mergeCell ref="A21:H23"/>
+    <mergeCell ref="A24:H26"/>
+    <mergeCell ref="I9:P11"/>
+    <mergeCell ref="Q9:S36"/>
+    <mergeCell ref="I15:P17"/>
     <mergeCell ref="I12:P14"/>
-    <mergeCell ref="A1:S5"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2079,377 +2079,402 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="37" t="s">
-        <v>31</v>
+      <c r="C1" s="41" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
+      <c r="A3" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
     </row>
     <row r="4" ht="24.75">
-      <c r="C4" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="41" t="s">
+      <c r="C4" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="41" t="s">
+      <c r="D4" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
+      <c r="F4" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
     </row>
     <row r="5" ht="24.75">
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="43" t="s">
+      <c r="D5" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
+      <c r="G5" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
     </row>
     <row r="6">
-      <c r="C6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
+      <c r="C6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
     </row>
     <row r="7">
-      <c r="C7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
+      <c r="C7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
     </row>
     <row r="8" ht="24.75">
-      <c r="C8" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="41" t="s">
+      <c r="C8" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
+      <c r="F8" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
     </row>
     <row r="9" ht="45.0">
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="43" t="s">
+      <c r="D9" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="G9" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
+      <c r="G9" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
     </row>
     <row r="10">
-      <c r="C10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
+      <c r="C10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
     </row>
     <row r="11">
-      <c r="C11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
+      <c r="C11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
     </row>
     <row r="12" ht="24.75">
-      <c r="C12" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="41" t="s">
+      <c r="C12" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42"/>
+      <c r="F12" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
     </row>
     <row r="13" ht="45.0">
-      <c r="C13" s="43" t="s">
+      <c r="C13" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="43" t="s">
+      <c r="D13" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="G13" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
+      <c r="G13" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
     </row>
     <row r="14">
-      <c r="C14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="42"/>
+      <c r="C14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
     </row>
     <row r="15">
-      <c r="C15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42"/>
+      <c r="C15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
     </row>
     <row r="16" ht="24.75">
-      <c r="C16" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="F16" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="G16" s="41" t="s">
+      <c r="C16" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
+      <c r="F16" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
     </row>
     <row r="17" ht="45.0">
-      <c r="C17" s="43" t="s">
+      <c r="C17" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="F17" s="43" t="s">
+      <c r="D17" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="G17" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
+      <c r="G17" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
     </row>
     <row r="18">
-      <c r="C18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
+      <c r="C18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
     </row>
     <row r="19">
-      <c r="C19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
+      <c r="C19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
     </row>
     <row r="20" ht="24.75">
-      <c r="C20" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="F20" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="G20" s="41" t="s">
+      <c r="C20" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="42"/>
+      <c r="F20" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
     </row>
     <row r="21" ht="45.0">
-      <c r="C21" s="43" t="s">
+      <c r="C21" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="F21" s="43" t="s">
+      <c r="D21" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="G21" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="H21" s="42"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="42"/>
+      <c r="G21" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
     </row>
     <row r="22">
-      <c r="C22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="42"/>
+      <c r="C22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="46"/>
     </row>
     <row r="23">
-      <c r="C23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="42"/>
+      <c r="C23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
     </row>
     <row r="24" ht="24.75">
-      <c r="C24" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="F24" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="G24" s="41" t="s">
+      <c r="C24" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="H24" s="42"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="42"/>
+      <c r="F24" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
     </row>
     <row r="25" ht="45.0">
-      <c r="C25" s="43" t="s">
+      <c r="C25" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="F25" s="43" t="s">
+      <c r="D25" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="F25" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="G25" s="45" t="s">
-        <v>57</v>
-      </c>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="42"/>
+      <c r="G25" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
     </row>
     <row r="26">
-      <c r="C26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="42"/>
+      <c r="C26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="46"/>
     </row>
     <row r="27">
-      <c r="C27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="42"/>
+      <c r="C27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="46"/>
     </row>
     <row r="28" ht="24.75">
-      <c r="C28" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="F28" s="40"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="42"/>
-      <c r="J28" s="42"/>
+      <c r="C28" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" s="44"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="46"/>
     </row>
     <row r="29" ht="45.0">
-      <c r="C29" s="43" t="s">
+      <c r="C29" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="D29" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="F29" s="43"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="42"/>
+      <c r="D29" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="F29" s="47"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="46"/>
     </row>
     <row r="30">
-      <c r="C30" s="42"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="42"/>
+      <c r="C30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="46"/>
     </row>
     <row r="31">
-      <c r="C31" s="39"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="42"/>
-      <c r="J31" s="42"/>
+      <c r="C31" s="43"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="46"/>
     </row>
     <row r="32">
-      <c r="C32" s="46"/>
-      <c r="D32" s="46"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="42"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="50"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="46"/>
     </row>
     <row r="33">
-      <c r="A33" s="47"/>
-      <c r="B33" s="47"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="42"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="42"/>
-      <c r="I33" s="42"/>
-      <c r="J33" s="42"/>
+      <c r="A33" s="51"/>
+      <c r="B33" s="51"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A3:B32"/>
+    <mergeCell ref="E3:E33"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:J2"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
     <mergeCell ref="F18:G18"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="F22:G22"/>
@@ -2457,31 +2482,6 @@
     <mergeCell ref="F26:G26"/>
     <mergeCell ref="F27:G27"/>
     <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:J2"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="A3:B32"/>
-    <mergeCell ref="E3:E33"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2495,538 +2495,538 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="48"/>
-      <c r="F1" s="49"/>
+      <c r="A1" s="37"/>
+      <c r="F1" s="38"/>
     </row>
     <row r="2" ht="28.5">
-      <c r="A2" s="50"/>
-      <c r="C2" s="51" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
+      <c r="A2" s="39"/>
+      <c r="C2" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
     </row>
     <row r="3">
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="51"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
     </row>
     <row r="4">
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="51"/>
-      <c r="O4" s="51"/>
-      <c r="P4" s="51"/>
-      <c r="Q4" s="51"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
     </row>
     <row r="5">
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="51"/>
-      <c r="P5" s="51"/>
-      <c r="Q5" s="51"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="40"/>
     </row>
     <row r="6">
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="51"/>
-      <c r="N6" s="51"/>
-      <c r="O6" s="51"/>
-      <c r="P6" s="51"/>
-      <c r="Q6" s="51"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="40"/>
     </row>
     <row r="7">
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="51"/>
-      <c r="N7" s="51"/>
-      <c r="O7" s="51"/>
-      <c r="P7" s="51"/>
-      <c r="Q7" s="51"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
     </row>
     <row r="8">
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="51"/>
-      <c r="N8" s="51"/>
-      <c r="O8" s="51"/>
-      <c r="P8" s="51"/>
-      <c r="Q8" s="51"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="40"/>
     </row>
     <row r="9">
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="51"/>
-      <c r="M9" s="51"/>
-      <c r="N9" s="51"/>
-      <c r="O9" s="51"/>
-      <c r="P9" s="51"/>
-      <c r="Q9" s="51"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="40"/>
     </row>
     <row r="10">
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="51"/>
-      <c r="O10" s="51"/>
-      <c r="P10" s="51"/>
-      <c r="Q10" s="51"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="40"/>
     </row>
     <row r="11">
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="51"/>
-      <c r="O11" s="51"/>
-      <c r="P11" s="51"/>
-      <c r="Q11" s="51"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="40"/>
     </row>
     <row r="12">
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="51"/>
-      <c r="O12" s="51"/>
-      <c r="P12" s="51"/>
-      <c r="Q12" s="51"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="40"/>
     </row>
     <row r="13">
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="51"/>
-      <c r="M13" s="51"/>
-      <c r="N13" s="51"/>
-      <c r="O13" s="51"/>
-      <c r="P13" s="51"/>
-      <c r="Q13" s="51"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="40"/>
     </row>
     <row r="14">
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="51"/>
-      <c r="O14" s="51"/>
-      <c r="P14" s="51"/>
-      <c r="Q14" s="51"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="40"/>
     </row>
     <row r="15">
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="51"/>
-      <c r="N15" s="51"/>
-      <c r="O15" s="51"/>
-      <c r="P15" s="51"/>
-      <c r="Q15" s="51"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="40"/>
     </row>
     <row r="16">
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="51"/>
-      <c r="N16" s="51"/>
-      <c r="O16" s="51"/>
-      <c r="P16" s="51"/>
-      <c r="Q16" s="51"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="40"/>
     </row>
     <row r="17">
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="51"/>
-      <c r="M17" s="51"/>
-      <c r="N17" s="51"/>
-      <c r="O17" s="51"/>
-      <c r="P17" s="51"/>
-      <c r="Q17" s="51"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="40"/>
     </row>
     <row r="18">
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="51"/>
-      <c r="M18" s="51"/>
-      <c r="N18" s="51"/>
-      <c r="O18" s="51"/>
-      <c r="P18" s="51"/>
-      <c r="Q18" s="51"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="40"/>
     </row>
     <row r="19">
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51"/>
-      <c r="L19" s="51"/>
-      <c r="M19" s="51"/>
-      <c r="N19" s="51"/>
-      <c r="O19" s="51"/>
-      <c r="P19" s="51"/>
-      <c r="Q19" s="51"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="40"/>
     </row>
     <row r="20">
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="51"/>
-      <c r="M20" s="51"/>
-      <c r="N20" s="51"/>
-      <c r="O20" s="51"/>
-      <c r="P20" s="51"/>
-      <c r="Q20" s="51"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="40"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="40"/>
     </row>
     <row r="21">
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="51"/>
-      <c r="L21" s="51"/>
-      <c r="M21" s="51"/>
-      <c r="N21" s="51"/>
-      <c r="O21" s="51"/>
-      <c r="P21" s="51"/>
-      <c r="Q21" s="51"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="40"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="40"/>
+      <c r="Q21" s="40"/>
     </row>
     <row r="22">
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="51"/>
-      <c r="L22" s="51"/>
-      <c r="M22" s="51"/>
-      <c r="N22" s="51"/>
-      <c r="O22" s="51"/>
-      <c r="P22" s="51"/>
-      <c r="Q22" s="51"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="40"/>
     </row>
     <row r="23">
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="51"/>
-      <c r="L23" s="51"/>
-      <c r="M23" s="51"/>
-      <c r="N23" s="51"/>
-      <c r="O23" s="51"/>
-      <c r="P23" s="51"/>
-      <c r="Q23" s="51"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="40"/>
     </row>
     <row r="24">
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="51"/>
-      <c r="L24" s="51"/>
-      <c r="M24" s="51"/>
-      <c r="N24" s="51"/>
-      <c r="O24" s="51"/>
-      <c r="P24" s="51"/>
-      <c r="Q24" s="51"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="40"/>
+      <c r="Q24" s="40"/>
     </row>
     <row r="25">
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="51"/>
-      <c r="K25" s="51"/>
-      <c r="L25" s="51"/>
-      <c r="M25" s="51"/>
-      <c r="N25" s="51"/>
-      <c r="O25" s="51"/>
-      <c r="P25" s="51"/>
-      <c r="Q25" s="51"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="40"/>
+      <c r="O25" s="40"/>
+      <c r="P25" s="40"/>
+      <c r="Q25" s="40"/>
     </row>
     <row r="26">
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="51"/>
-      <c r="K26" s="51"/>
-      <c r="L26" s="51"/>
-      <c r="M26" s="51"/>
-      <c r="N26" s="51"/>
-      <c r="O26" s="51"/>
-      <c r="P26" s="51"/>
-      <c r="Q26" s="51"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="40"/>
+      <c r="Q26" s="40"/>
     </row>
     <row r="27">
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="51"/>
-      <c r="J27" s="51"/>
-      <c r="K27" s="51"/>
-      <c r="L27" s="51"/>
-      <c r="M27" s="51"/>
-      <c r="N27" s="51"/>
-      <c r="O27" s="51"/>
-      <c r="P27" s="51"/>
-      <c r="Q27" s="51"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="40"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="40"/>
+      <c r="Q27" s="40"/>
     </row>
     <row r="28">
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="51"/>
-      <c r="J28" s="51"/>
-      <c r="K28" s="51"/>
-      <c r="L28" s="51"/>
-      <c r="M28" s="51"/>
-      <c r="N28" s="51"/>
-      <c r="O28" s="51"/>
-      <c r="P28" s="51"/>
-      <c r="Q28" s="51"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="40"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="40"/>
+      <c r="Q28" s="40"/>
     </row>
     <row r="29">
-      <c r="C29" s="51"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="51"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="51"/>
-      <c r="I29" s="51"/>
-      <c r="J29" s="51"/>
-      <c r="K29" s="51"/>
-      <c r="L29" s="51"/>
-      <c r="M29" s="51"/>
-      <c r="N29" s="51"/>
-      <c r="O29" s="51"/>
-      <c r="P29" s="51"/>
-      <c r="Q29" s="51"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="40"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="40"/>
+      <c r="N29" s="40"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="40"/>
+      <c r="Q29" s="40"/>
     </row>
     <row r="30">
-      <c r="C30" s="51"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="51"/>
-      <c r="F30" s="51"/>
-      <c r="G30" s="51"/>
-      <c r="H30" s="51"/>
-      <c r="I30" s="51"/>
-      <c r="J30" s="51"/>
-      <c r="K30" s="51"/>
-      <c r="L30" s="51"/>
-      <c r="M30" s="51"/>
-      <c r="N30" s="51"/>
-      <c r="O30" s="51"/>
-      <c r="P30" s="51"/>
-      <c r="Q30" s="51"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="40"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="40"/>
+      <c r="N30" s="40"/>
+      <c r="O30" s="40"/>
+      <c r="P30" s="40"/>
+      <c r="Q30" s="40"/>
     </row>
     <row r="31">
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="51"/>
-      <c r="G31" s="51"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="51"/>
-      <c r="J31" s="51"/>
-      <c r="K31" s="51"/>
-      <c r="L31" s="51"/>
-      <c r="M31" s="51"/>
-      <c r="N31" s="51"/>
-      <c r="O31" s="51"/>
-      <c r="P31" s="51"/>
-      <c r="Q31" s="51"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="40"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="40"/>
+      <c r="N31" s="40"/>
+      <c r="O31" s="40"/>
+      <c r="P31" s="40"/>
+      <c r="Q31" s="40"/>
     </row>
     <row r="32">
-      <c r="C32" s="51"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="51"/>
-      <c r="F32" s="51"/>
-      <c r="G32" s="51"/>
-      <c r="H32" s="51"/>
-      <c r="I32" s="51"/>
-      <c r="J32" s="51"/>
-      <c r="K32" s="51"/>
-      <c r="L32" s="51"/>
-      <c r="M32" s="51"/>
-      <c r="N32" s="51"/>
-      <c r="O32" s="51"/>
-      <c r="P32" s="51"/>
-      <c r="Q32" s="51"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="40"/>
+      <c r="L32" s="40"/>
+      <c r="M32" s="40"/>
+      <c r="N32" s="40"/>
+      <c r="O32" s="40"/>
+      <c r="P32" s="40"/>
+      <c r="Q32" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3050,7 +3050,7 @@
     <col customWidth="1" min="2" max="2" width="14.86"/>
     <col customWidth="1" min="3" max="3" width="44.14"/>
     <col customWidth="1" min="4" max="4" width="37.86"/>
-    <col customWidth="1" min="7" max="7" width="17.14"/>
+    <col customWidth="1" min="7" max="7" width="24.14"/>
     <col customWidth="1" min="9" max="9" width="45.29"/>
     <col customWidth="1" min="13" max="13" width="19.14"/>
     <col customWidth="1" min="15" max="15" width="40.71"/>
@@ -9211,26 +9211,10 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="A76:A78"/>
-    <mergeCell ref="A79:A81"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B38"/>
-    <mergeCell ref="A54:A56"/>
-    <mergeCell ref="I1:K3"/>
-    <mergeCell ref="O1:Q3"/>
-    <mergeCell ref="U1:W3"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="A67:A69"/>
-    <mergeCell ref="A70:A72"/>
-    <mergeCell ref="A73:A75"/>
-    <mergeCell ref="C1:E3"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="A115:A117"/>
-    <mergeCell ref="A118:A120"/>
-    <mergeCell ref="A121:A123"/>
-    <mergeCell ref="A124:A126"/>
-    <mergeCell ref="A127:A129"/>
+    <mergeCell ref="A142:A144"/>
+    <mergeCell ref="A145:A147"/>
+    <mergeCell ref="A148:A150"/>
+    <mergeCell ref="A151:A153"/>
     <mergeCell ref="A130:A132"/>
     <mergeCell ref="A133:A135"/>
     <mergeCell ref="A178:A180"/>
@@ -9238,29 +9222,45 @@
     <mergeCell ref="A157:A159"/>
     <mergeCell ref="A160:A162"/>
     <mergeCell ref="A163:A165"/>
+    <mergeCell ref="A154:A156"/>
+    <mergeCell ref="A88:A90"/>
+    <mergeCell ref="A94:A96"/>
+    <mergeCell ref="A91:A93"/>
+    <mergeCell ref="A97:A99"/>
+    <mergeCell ref="A100:A102"/>
+    <mergeCell ref="A103:A105"/>
+    <mergeCell ref="A106:A108"/>
+    <mergeCell ref="A109:A111"/>
+    <mergeCell ref="A112:A114"/>
+    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="A73:A75"/>
+    <mergeCell ref="A115:A117"/>
+    <mergeCell ref="A118:A120"/>
+    <mergeCell ref="A121:A123"/>
+    <mergeCell ref="A124:A126"/>
+    <mergeCell ref="A127:A129"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="A67:A69"/>
     <mergeCell ref="A166:A168"/>
     <mergeCell ref="A169:A171"/>
     <mergeCell ref="A172:A174"/>
     <mergeCell ref="A175:A177"/>
     <mergeCell ref="A136:A138"/>
     <mergeCell ref="A139:A141"/>
-    <mergeCell ref="A142:A144"/>
-    <mergeCell ref="A145:A147"/>
-    <mergeCell ref="A148:A150"/>
-    <mergeCell ref="A151:A153"/>
-    <mergeCell ref="A154:A156"/>
     <mergeCell ref="A82:A84"/>
     <mergeCell ref="A85:A87"/>
-    <mergeCell ref="A88:A90"/>
-    <mergeCell ref="A94:A96"/>
-    <mergeCell ref="A97:A99"/>
-    <mergeCell ref="A100:A102"/>
-    <mergeCell ref="A103:A105"/>
-    <mergeCell ref="A106:A108"/>
-    <mergeCell ref="A109:A111"/>
-    <mergeCell ref="A112:A114"/>
-    <mergeCell ref="A91:A93"/>
+    <mergeCell ref="A1:A2"/>
     <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A76:A78"/>
+    <mergeCell ref="A79:A81"/>
+    <mergeCell ref="B1:B38"/>
+    <mergeCell ref="I1:K3"/>
+    <mergeCell ref="O1:Q3"/>
+    <mergeCell ref="U1:W3"/>
+    <mergeCell ref="C1:E3"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -9278,7 +9278,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="41" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="52" t="s">
@@ -9295,8 +9295,8 @@
       </c>
     </row>
     <row r="4" ht="1.5" customHeight="1">
-      <c r="A4" s="24"/>
-      <c r="B4" s="25"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="23"/>
     </row>
     <row r="5">
       <c r="A5" s="55" t="s">
@@ -9307,8 +9307,8 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="24"/>
-      <c r="B6" s="25"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="23"/>
     </row>
     <row r="7">
       <c r="A7" s="55" t="s">
@@ -9319,8 +9319,8 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="24"/>
-      <c r="B8" s="25"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="23"/>
     </row>
     <row r="9">
       <c r="A9" s="55" t="s">
@@ -9331,8 +9331,8 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="24"/>
-      <c r="B10" s="25"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="23"/>
     </row>
     <row r="11">
       <c r="A11" s="55" t="s">
@@ -9343,8 +9343,8 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="24"/>
-      <c r="B12" s="25"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="23"/>
     </row>
     <row r="13">
       <c r="A13" s="55" t="s">
@@ -9355,8 +9355,8 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="24"/>
-      <c r="B14" s="25"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="23"/>
     </row>
     <row r="15">
       <c r="A15" s="55" t="s">
@@ -9367,8 +9367,8 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="24"/>
-      <c r="B16" s="25"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="23"/>
     </row>
     <row r="17">
       <c r="A17" s="55" t="s">
@@ -9379,8 +9379,8 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="24"/>
-      <c r="B18" s="25"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="23"/>
     </row>
     <row r="19">
       <c r="A19" s="55" t="s">
@@ -9391,8 +9391,8 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="24"/>
-      <c r="B20" s="25"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="23"/>
     </row>
     <row r="21">
       <c r="A21" s="57"/>
@@ -9424,6 +9424,17 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B19:B20"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A29:A30"/>
@@ -9432,34 +9443,23 @@
     <mergeCell ref="A35:A36"/>
     <mergeCell ref="A37:A38"/>
     <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B21:B22"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="B31:B32"/>
     <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
     <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
     <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -9489,19 +9489,19 @@
     </row>
     <row r="4" ht="45.0">
       <c r="A4" s="62" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B4" s="63"/>
     </row>
     <row r="5" ht="45.0">
       <c r="A5" s="62" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B5" s="63"/>
     </row>
     <row r="6" ht="45.0">
       <c r="A6" s="62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B6" s="63"/>
     </row>
@@ -9513,13 +9513,13 @@
     </row>
     <row r="8" ht="45.0">
       <c r="A8" s="62" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B8" s="63"/>
     </row>
     <row r="9" ht="45.0">
       <c r="A9" s="62" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B9" s="63"/>
     </row>
@@ -9531,13 +9531,13 @@
     </row>
     <row r="11" ht="45.0">
       <c r="A11" s="62" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B11" s="63"/>
     </row>
     <row r="12" ht="45.0">
       <c r="A12" s="62" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B12" s="63"/>
     </row>
@@ -9555,7 +9555,7 @@
     </row>
     <row r="15" ht="45.0">
       <c r="A15" s="62" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B15" s="64"/>
     </row>
@@ -9594,15 +9594,27 @@
       <c r="B29" s="64"/>
     </row>
     <row r="31">
-      <c r="A31" s="42"/>
-      <c r="B31" s="42"/>
+      <c r="A31" s="46"/>
+      <c r="B31" s="46"/>
     </row>
     <row r="33">
-      <c r="A33" s="42"/>
-      <c r="B33" s="42"/>
+      <c r="A33" s="46"/>
+      <c r="B33" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A1:B2"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A29:A30"/>
@@ -9610,18 +9622,6 @@
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A1:B2"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -9639,7 +9639,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="41" t="s">
         <v>87</v>
       </c>
       <c r="B1" s="52" t="s">
@@ -9734,13 +9734,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B27:B28"/>
@@ -9751,23 +9744,30 @@
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B26"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="B15:B16"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A17:A18"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/project_plan.xlsx
+++ b/project_plan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" firstSheet="1" activeTab="4"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="1" r:id="rId1"/>
@@ -1204,23 +1204,24 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1232,8 +1233,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1244,6 +1244,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1253,16 +1256,13 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1273,21 +1273,30 @@
     <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1299,24 +1308,15 @@
     <xf numFmtId="0" fontId="17" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1649,27 +1649,27 @@
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
       <c r="T1" s="5"/>
       <c r="U1" s="5"/>
       <c r="V1" s="5"/>
@@ -1679,25 +1679,25 @@
       <c r="Z1" s="5"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A2" s="53"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
       <c r="T2" s="5"/>
       <c r="U2" s="5"/>
       <c r="V2" s="5"/>
@@ -1707,25 +1707,25 @@
       <c r="Z2" s="5"/>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A3" s="53"/>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="53"/>
-      <c r="S3" s="53"/>
+      <c r="A3" s="51"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="51"/>
+      <c r="S3" s="51"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
       <c r="V3" s="5"/>
@@ -1735,25 +1735,25 @@
       <c r="Z3" s="5"/>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A4" s="53"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="53"/>
-      <c r="S4" s="53"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
+      <c r="P4" s="51"/>
+      <c r="Q4" s="51"/>
+      <c r="R4" s="51"/>
+      <c r="S4" s="51"/>
       <c r="T4" s="5"/>
       <c r="U4" s="5"/>
       <c r="V4" s="5"/>
@@ -1763,25 +1763,25 @@
       <c r="Z4" s="5"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A5" s="53"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="53"/>
-      <c r="P5" s="53"/>
-      <c r="Q5" s="53"/>
-      <c r="R5" s="53"/>
-      <c r="S5" s="53"/>
+      <c r="A5" s="51"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="51"/>
+      <c r="Q5" s="51"/>
+      <c r="R5" s="51"/>
+      <c r="S5" s="51"/>
       <c r="T5" s="5"/>
       <c r="U5" s="5"/>
       <c r="V5" s="5"/>
@@ -1791,29 +1791,29 @@
       <c r="Z5" s="5"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="61" t="s">
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="53"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="53"/>
-      <c r="R6" s="53"/>
-      <c r="S6" s="53"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="51"/>
+      <c r="O6" s="51"/>
+      <c r="P6" s="51"/>
+      <c r="Q6" s="51"/>
+      <c r="R6" s="51"/>
+      <c r="S6" s="51"/>
       <c r="T6" s="6"/>
       <c r="U6" s="6"/>
       <c r="V6" s="6"/>
@@ -1823,25 +1823,25 @@
       <c r="Z6" s="6"/>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A7" s="53"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="53"/>
-      <c r="R7" s="53"/>
-      <c r="S7" s="53"/>
+      <c r="A7" s="51"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="51"/>
+      <c r="O7" s="51"/>
+      <c r="P7" s="51"/>
+      <c r="Q7" s="51"/>
+      <c r="R7" s="51"/>
+      <c r="S7" s="51"/>
       <c r="T7" s="6"/>
       <c r="U7" s="6"/>
       <c r="V7" s="6"/>
@@ -1851,25 +1851,25 @@
       <c r="Z7" s="6"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A8" s="53"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="53"/>
-      <c r="O8" s="53"/>
-      <c r="P8" s="53"/>
-      <c r="Q8" s="53"/>
-      <c r="R8" s="53"/>
-      <c r="S8" s="53"/>
+      <c r="A8" s="51"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="51"/>
+      <c r="O8" s="51"/>
+      <c r="P8" s="51"/>
+      <c r="Q8" s="51"/>
+      <c r="R8" s="51"/>
+      <c r="S8" s="51"/>
       <c r="T8" s="6"/>
       <c r="U8" s="6"/>
       <c r="V8" s="6"/>
@@ -1878,632 +1878,624 @@
       <c r="Y8" s="6"/>
       <c r="Z8" s="6"/>
     </row>
-    <row r="9" spans="1:26">
-      <c r="A9" s="57" t="s">
+    <row r="9" spans="1:26" ht="12.75">
+      <c r="A9" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="71" t="s">
+      <c r="B9" s="51"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="53"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="53"/>
-      <c r="Q9" s="70"/>
-      <c r="R9" s="53"/>
-      <c r="S9" s="53"/>
-    </row>
-    <row r="10" spans="1:26">
-      <c r="A10" s="53"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="53"/>
-      <c r="O10" s="53"/>
-      <c r="P10" s="53"/>
-      <c r="Q10" s="53"/>
-      <c r="R10" s="53"/>
-      <c r="S10" s="53"/>
-    </row>
-    <row r="11" spans="1:26">
-      <c r="A11" s="55"/>
-      <c r="B11" s="55"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="55"/>
-      <c r="M11" s="55"/>
-      <c r="N11" s="55"/>
-      <c r="O11" s="55"/>
-      <c r="P11" s="55"/>
-      <c r="Q11" s="53"/>
-      <c r="R11" s="53"/>
-      <c r="S11" s="53"/>
-    </row>
-    <row r="12" spans="1:26">
-      <c r="A12" s="50" t="s">
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="51"/>
+      <c r="M9" s="51"/>
+      <c r="N9" s="51"/>
+      <c r="O9" s="51"/>
+      <c r="P9" s="51"/>
+      <c r="Q9" s="50"/>
+      <c r="R9" s="51"/>
+      <c r="S9" s="51"/>
+    </row>
+    <row r="10" spans="1:26" ht="12.75">
+      <c r="A10" s="51"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="51"/>
+      <c r="N10" s="51"/>
+      <c r="O10" s="51"/>
+      <c r="P10" s="51"/>
+      <c r="Q10" s="51"/>
+      <c r="R10" s="51"/>
+      <c r="S10" s="51"/>
+    </row>
+    <row r="11" spans="1:26" ht="12.75">
+      <c r="A11" s="56"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="56"/>
+      <c r="P11" s="56"/>
+      <c r="Q11" s="51"/>
+      <c r="R11" s="51"/>
+      <c r="S11" s="51"/>
+    </row>
+    <row r="12" spans="1:26" ht="12.75">
+      <c r="A12" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="58" t="s">
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="51"/>
-      <c r="O12" s="51"/>
-      <c r="P12" s="51"/>
-      <c r="Q12" s="53"/>
-      <c r="R12" s="53"/>
-      <c r="S12" s="53"/>
-    </row>
-    <row r="13" spans="1:26">
-      <c r="A13" s="53"/>
-      <c r="B13" s="53"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="53"/>
-      <c r="O13" s="53"/>
-      <c r="P13" s="53"/>
-      <c r="Q13" s="53"/>
-      <c r="R13" s="53"/>
-      <c r="S13" s="53"/>
-    </row>
-    <row r="14" spans="1:26">
-      <c r="A14" s="55"/>
-      <c r="B14" s="55"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="55"/>
-      <c r="M14" s="55"/>
-      <c r="N14" s="55"/>
-      <c r="O14" s="55"/>
-      <c r="P14" s="55"/>
-      <c r="Q14" s="53"/>
-      <c r="R14" s="53"/>
-      <c r="S14" s="53"/>
-    </row>
-    <row r="15" spans="1:26">
-      <c r="A15" s="50" t="s">
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="53"/>
+      <c r="O12" s="53"/>
+      <c r="P12" s="53"/>
+      <c r="Q12" s="51"/>
+      <c r="R12" s="51"/>
+      <c r="S12" s="51"/>
+    </row>
+    <row r="13" spans="1:26" ht="12.75">
+      <c r="A13" s="51"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="51"/>
+      <c r="Q13" s="51"/>
+      <c r="R13" s="51"/>
+      <c r="S13" s="51"/>
+    </row>
+    <row r="14" spans="1:26" ht="12.75">
+      <c r="A14" s="56"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="56"/>
+      <c r="P14" s="56"/>
+      <c r="Q14" s="51"/>
+      <c r="R14" s="51"/>
+      <c r="S14" s="51"/>
+    </row>
+    <row r="15" spans="1:26" ht="12.75">
+      <c r="A15" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="58" t="s">
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="51"/>
-      <c r="N15" s="51"/>
-      <c r="O15" s="51"/>
-      <c r="P15" s="51"/>
-      <c r="Q15" s="53"/>
-      <c r="R15" s="53"/>
-      <c r="S15" s="53"/>
-    </row>
-    <row r="16" spans="1:26">
-      <c r="A16" s="53"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="53"/>
-      <c r="O16" s="53"/>
-      <c r="P16" s="53"/>
-      <c r="Q16" s="53"/>
-      <c r="R16" s="53"/>
-      <c r="S16" s="53"/>
-    </row>
-    <row r="17" spans="1:19">
-      <c r="A17" s="55"/>
-      <c r="B17" s="55"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="60"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="55"/>
-      <c r="L17" s="55"/>
-      <c r="M17" s="55"/>
-      <c r="N17" s="55"/>
-      <c r="O17" s="55"/>
-      <c r="P17" s="55"/>
-      <c r="Q17" s="53"/>
-      <c r="R17" s="53"/>
-      <c r="S17" s="53"/>
-    </row>
-    <row r="18" spans="1:19">
-      <c r="A18" s="50" t="s">
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="53"/>
+      <c r="P15" s="53"/>
+      <c r="Q15" s="51"/>
+      <c r="R15" s="51"/>
+      <c r="S15" s="51"/>
+    </row>
+    <row r="16" spans="1:26" ht="12.75">
+      <c r="A16" s="51"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="51"/>
+      <c r="M16" s="51"/>
+      <c r="N16" s="51"/>
+      <c r="O16" s="51"/>
+      <c r="P16" s="51"/>
+      <c r="Q16" s="51"/>
+      <c r="R16" s="51"/>
+      <c r="S16" s="51"/>
+    </row>
+    <row r="17" spans="1:19" ht="12.75">
+      <c r="A17" s="56"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="56"/>
+      <c r="O17" s="56"/>
+      <c r="P17" s="56"/>
+      <c r="Q17" s="51"/>
+      <c r="R17" s="51"/>
+      <c r="S17" s="51"/>
+    </row>
+    <row r="18" spans="1:19" ht="12.75">
+      <c r="A18" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="51"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="58" t="s">
+      <c r="B18" s="53"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="J18" s="51"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="51"/>
-      <c r="M18" s="51"/>
-      <c r="N18" s="51"/>
-      <c r="O18" s="51"/>
-      <c r="P18" s="51"/>
-      <c r="Q18" s="53"/>
-      <c r="R18" s="53"/>
-      <c r="S18" s="53"/>
-    </row>
-    <row r="19" spans="1:19">
-      <c r="A19" s="53"/>
-      <c r="B19" s="53"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="53"/>
-      <c r="N19" s="53"/>
-      <c r="O19" s="53"/>
-      <c r="P19" s="53"/>
-      <c r="Q19" s="53"/>
-      <c r="R19" s="53"/>
-      <c r="S19" s="53"/>
-    </row>
-    <row r="20" spans="1:19">
-      <c r="A20" s="55"/>
-      <c r="B20" s="55"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="55"/>
-      <c r="L20" s="55"/>
-      <c r="M20" s="55"/>
-      <c r="N20" s="55"/>
-      <c r="O20" s="55"/>
-      <c r="P20" s="55"/>
-      <c r="Q20" s="53"/>
-      <c r="R20" s="53"/>
-      <c r="S20" s="53"/>
-    </row>
-    <row r="21" spans="1:19">
-      <c r="A21" s="50" t="s">
+      <c r="J18" s="53"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="53"/>
+      <c r="N18" s="53"/>
+      <c r="O18" s="53"/>
+      <c r="P18" s="53"/>
+      <c r="Q18" s="51"/>
+      <c r="R18" s="51"/>
+      <c r="S18" s="51"/>
+    </row>
+    <row r="19" spans="1:19" ht="12.75">
+      <c r="A19" s="51"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="51"/>
+      <c r="L19" s="51"/>
+      <c r="M19" s="51"/>
+      <c r="N19" s="51"/>
+      <c r="O19" s="51"/>
+      <c r="P19" s="51"/>
+      <c r="Q19" s="51"/>
+      <c r="R19" s="51"/>
+      <c r="S19" s="51"/>
+    </row>
+    <row r="20" spans="1:19" ht="12.75">
+      <c r="A20" s="56"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="56"/>
+      <c r="O20" s="56"/>
+      <c r="P20" s="56"/>
+      <c r="Q20" s="51"/>
+      <c r="R20" s="51"/>
+      <c r="S20" s="51"/>
+    </row>
+    <row r="21" spans="1:19" ht="12.75">
+      <c r="A21" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="58" t="s">
+      <c r="B21" s="53"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="J21" s="51"/>
-      <c r="K21" s="51"/>
-      <c r="L21" s="51"/>
-      <c r="M21" s="51"/>
-      <c r="N21" s="51"/>
-      <c r="O21" s="51"/>
-      <c r="P21" s="51"/>
-      <c r="Q21" s="53"/>
-      <c r="R21" s="53"/>
-      <c r="S21" s="53"/>
-    </row>
-    <row r="22" spans="1:19">
-      <c r="A22" s="53"/>
-      <c r="B22" s="53"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="59"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="53"/>
-      <c r="N22" s="53"/>
-      <c r="O22" s="53"/>
-      <c r="P22" s="53"/>
-      <c r="Q22" s="53"/>
-      <c r="R22" s="53"/>
-      <c r="S22" s="53"/>
-    </row>
-    <row r="23" spans="1:19">
-      <c r="A23" s="55"/>
-      <c r="B23" s="55"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="55"/>
-      <c r="K23" s="55"/>
-      <c r="L23" s="55"/>
-      <c r="M23" s="55"/>
-      <c r="N23" s="55"/>
-      <c r="O23" s="55"/>
-      <c r="P23" s="55"/>
-      <c r="Q23" s="53"/>
-      <c r="R23" s="53"/>
-      <c r="S23" s="53"/>
-    </row>
-    <row r="24" spans="1:19">
-      <c r="A24" s="50" t="s">
+      <c r="J21" s="53"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="53"/>
+      <c r="N21" s="53"/>
+      <c r="O21" s="53"/>
+      <c r="P21" s="53"/>
+      <c r="Q21" s="51"/>
+      <c r="R21" s="51"/>
+      <c r="S21" s="51"/>
+    </row>
+    <row r="22" spans="1:19" ht="12.75">
+      <c r="A22" s="51"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="51"/>
+      <c r="L22" s="51"/>
+      <c r="M22" s="51"/>
+      <c r="N22" s="51"/>
+      <c r="O22" s="51"/>
+      <c r="P22" s="51"/>
+      <c r="Q22" s="51"/>
+      <c r="R22" s="51"/>
+      <c r="S22" s="51"/>
+    </row>
+    <row r="23" spans="1:19" ht="12.75">
+      <c r="A23" s="56"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="56"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="56"/>
+      <c r="O23" s="56"/>
+      <c r="P23" s="56"/>
+      <c r="Q23" s="51"/>
+      <c r="R23" s="51"/>
+      <c r="S23" s="51"/>
+    </row>
+    <row r="24" spans="1:19" ht="12.75">
+      <c r="A24" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="51"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="58" t="s">
+      <c r="B24" s="53"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="J24" s="51"/>
-      <c r="K24" s="51"/>
-      <c r="L24" s="51"/>
-      <c r="M24" s="51"/>
-      <c r="N24" s="51"/>
-      <c r="O24" s="51"/>
-      <c r="P24" s="51"/>
-      <c r="Q24" s="53"/>
-      <c r="R24" s="53"/>
-      <c r="S24" s="53"/>
-    </row>
-    <row r="25" spans="1:19">
-      <c r="A25" s="53"/>
-      <c r="B25" s="53"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="59"/>
-      <c r="J25" s="53"/>
-      <c r="K25" s="53"/>
-      <c r="L25" s="53"/>
-      <c r="M25" s="53"/>
-      <c r="N25" s="53"/>
-      <c r="O25" s="53"/>
-      <c r="P25" s="53"/>
-      <c r="Q25" s="53"/>
-      <c r="R25" s="53"/>
-      <c r="S25" s="53"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="53"/>
+      <c r="N24" s="53"/>
+      <c r="O24" s="53"/>
+      <c r="P24" s="53"/>
+      <c r="Q24" s="51"/>
+      <c r="R24" s="51"/>
+      <c r="S24" s="51"/>
+    </row>
+    <row r="25" spans="1:19" ht="12.75">
+      <c r="A25" s="51"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="51"/>
+      <c r="K25" s="51"/>
+      <c r="L25" s="51"/>
+      <c r="M25" s="51"/>
+      <c r="N25" s="51"/>
+      <c r="O25" s="51"/>
+      <c r="P25" s="51"/>
+      <c r="Q25" s="51"/>
+      <c r="R25" s="51"/>
+      <c r="S25" s="51"/>
     </row>
     <row r="26" spans="1:19" ht="12.75">
-      <c r="A26" s="53"/>
-      <c r="B26" s="53"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="60"/>
-      <c r="J26" s="55"/>
-      <c r="K26" s="55"/>
-      <c r="L26" s="55"/>
-      <c r="M26" s="55"/>
-      <c r="N26" s="55"/>
-      <c r="O26" s="55"/>
-      <c r="P26" s="55"/>
-      <c r="Q26" s="53"/>
-      <c r="R26" s="53"/>
-      <c r="S26" s="53"/>
+      <c r="A26" s="51"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="56"/>
+      <c r="L26" s="56"/>
+      <c r="M26" s="56"/>
+      <c r="N26" s="56"/>
+      <c r="O26" s="56"/>
+      <c r="P26" s="56"/>
+      <c r="Q26" s="51"/>
+      <c r="R26" s="51"/>
+      <c r="S26" s="51"/>
     </row>
     <row r="27" spans="1:19" ht="12.75">
-      <c r="A27" s="50" t="s">
+      <c r="A27" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="51"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="67"/>
-      <c r="I27" s="63" t="s">
+      <c r="B27" s="53"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="68"/>
+      <c r="I27" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="J27" s="53"/>
-      <c r="K27" s="53"/>
-      <c r="L27" s="53"/>
-      <c r="M27" s="53"/>
-      <c r="N27" s="53"/>
-      <c r="O27" s="53"/>
-      <c r="P27" s="53"/>
-      <c r="Q27" s="53"/>
-      <c r="R27" s="53"/>
-      <c r="S27" s="53"/>
+      <c r="J27" s="51"/>
+      <c r="K27" s="51"/>
+      <c r="L27" s="51"/>
+      <c r="M27" s="51"/>
+      <c r="N27" s="51"/>
+      <c r="O27" s="51"/>
+      <c r="P27" s="51"/>
+      <c r="Q27" s="51"/>
+      <c r="R27" s="51"/>
+      <c r="S27" s="51"/>
     </row>
     <row r="28" spans="1:19" ht="12.75">
-      <c r="A28" s="53"/>
-      <c r="B28" s="53"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="53"/>
-      <c r="H28" s="68"/>
-      <c r="I28" s="64"/>
-      <c r="J28" s="53"/>
-      <c r="K28" s="53"/>
-      <c r="L28" s="53"/>
-      <c r="M28" s="53"/>
-      <c r="N28" s="53"/>
-      <c r="O28" s="53"/>
-      <c r="P28" s="53"/>
-      <c r="Q28" s="53"/>
-      <c r="R28" s="53"/>
-      <c r="S28" s="53"/>
+      <c r="A28" s="51"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="69"/>
+      <c r="I28" s="65"/>
+      <c r="J28" s="51"/>
+      <c r="K28" s="51"/>
+      <c r="L28" s="51"/>
+      <c r="M28" s="51"/>
+      <c r="N28" s="51"/>
+      <c r="O28" s="51"/>
+      <c r="P28" s="51"/>
+      <c r="Q28" s="51"/>
+      <c r="R28" s="51"/>
+      <c r="S28" s="51"/>
     </row>
     <row r="29" spans="1:19" ht="12.75">
-      <c r="A29" s="66"/>
-      <c r="B29" s="66"/>
-      <c r="C29" s="66"/>
-      <c r="D29" s="66"/>
-      <c r="E29" s="66"/>
-      <c r="F29" s="66"/>
-      <c r="G29" s="66"/>
-      <c r="H29" s="69"/>
-      <c r="I29" s="65"/>
-      <c r="J29" s="66"/>
-      <c r="K29" s="66"/>
-      <c r="L29" s="66"/>
-      <c r="M29" s="66"/>
-      <c r="N29" s="66"/>
-      <c r="O29" s="66"/>
-      <c r="P29" s="66"/>
-      <c r="Q29" s="53"/>
-      <c r="R29" s="53"/>
-      <c r="S29" s="53"/>
+      <c r="A29" s="67"/>
+      <c r="B29" s="67"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="70"/>
+      <c r="I29" s="66"/>
+      <c r="J29" s="67"/>
+      <c r="K29" s="67"/>
+      <c r="L29" s="67"/>
+      <c r="M29" s="67"/>
+      <c r="N29" s="67"/>
+      <c r="O29" s="67"/>
+      <c r="P29" s="67"/>
+      <c r="Q29" s="51"/>
+      <c r="R29" s="51"/>
+      <c r="S29" s="51"/>
     </row>
     <row r="30" spans="1:19" ht="12.75">
-      <c r="A30" s="70"/>
-      <c r="B30" s="53"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="53"/>
-      <c r="G30" s="53"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="53"/>
-      <c r="J30" s="53"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="53"/>
-      <c r="M30" s="53"/>
-      <c r="N30" s="53"/>
-      <c r="O30" s="53"/>
-      <c r="P30" s="53"/>
-      <c r="Q30" s="53"/>
-      <c r="R30" s="53"/>
-      <c r="S30" s="53"/>
+      <c r="A30" s="50"/>
+      <c r="B30" s="51"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="51"/>
+      <c r="J30" s="51"/>
+      <c r="K30" s="51"/>
+      <c r="L30" s="51"/>
+      <c r="M30" s="51"/>
+      <c r="N30" s="51"/>
+      <c r="O30" s="51"/>
+      <c r="P30" s="51"/>
+      <c r="Q30" s="51"/>
+      <c r="R30" s="51"/>
+      <c r="S30" s="51"/>
     </row>
     <row r="31" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A31" s="53"/>
-      <c r="B31" s="53"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="53"/>
-      <c r="H31" s="53"/>
-      <c r="I31" s="53"/>
-      <c r="J31" s="53"/>
-      <c r="K31" s="53"/>
-      <c r="L31" s="53"/>
-      <c r="M31" s="53"/>
-      <c r="N31" s="53"/>
-      <c r="O31" s="53"/>
-      <c r="P31" s="53"/>
-      <c r="Q31" s="53"/>
-      <c r="R31" s="53"/>
-      <c r="S31" s="53"/>
+      <c r="A31" s="51"/>
+      <c r="B31" s="51"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="51"/>
+      <c r="K31" s="51"/>
+      <c r="L31" s="51"/>
+      <c r="M31" s="51"/>
+      <c r="N31" s="51"/>
+      <c r="O31" s="51"/>
+      <c r="P31" s="51"/>
+      <c r="Q31" s="51"/>
+      <c r="R31" s="51"/>
+      <c r="S31" s="51"/>
     </row>
     <row r="32" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A32" s="53"/>
-      <c r="B32" s="53"/>
-      <c r="C32" s="53"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="53"/>
-      <c r="F32" s="53"/>
-      <c r="G32" s="53"/>
-      <c r="H32" s="53"/>
-      <c r="I32" s="53"/>
-      <c r="J32" s="53"/>
-      <c r="K32" s="53"/>
-      <c r="L32" s="53"/>
-      <c r="M32" s="53"/>
-      <c r="N32" s="53"/>
-      <c r="O32" s="53"/>
-      <c r="P32" s="53"/>
-      <c r="Q32" s="53"/>
-      <c r="R32" s="53"/>
-      <c r="S32" s="53"/>
+      <c r="A32" s="51"/>
+      <c r="B32" s="51"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="51"/>
+      <c r="J32" s="51"/>
+      <c r="K32" s="51"/>
+      <c r="L32" s="51"/>
+      <c r="M32" s="51"/>
+      <c r="N32" s="51"/>
+      <c r="O32" s="51"/>
+      <c r="P32" s="51"/>
+      <c r="Q32" s="51"/>
+      <c r="R32" s="51"/>
+      <c r="S32" s="51"/>
     </row>
     <row r="33" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A33" s="53"/>
-      <c r="B33" s="53"/>
-      <c r="C33" s="53"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="53"/>
-      <c r="H33" s="53"/>
-      <c r="I33" s="53"/>
-      <c r="J33" s="53"/>
-      <c r="K33" s="53"/>
-      <c r="L33" s="53"/>
-      <c r="M33" s="53"/>
-      <c r="N33" s="53"/>
-      <c r="O33" s="53"/>
-      <c r="P33" s="53"/>
-      <c r="Q33" s="53"/>
-      <c r="R33" s="53"/>
-      <c r="S33" s="53"/>
+      <c r="A33" s="51"/>
+      <c r="B33" s="51"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="51"/>
+      <c r="J33" s="51"/>
+      <c r="K33" s="51"/>
+      <c r="L33" s="51"/>
+      <c r="M33" s="51"/>
+      <c r="N33" s="51"/>
+      <c r="O33" s="51"/>
+      <c r="P33" s="51"/>
+      <c r="Q33" s="51"/>
+      <c r="R33" s="51"/>
+      <c r="S33" s="51"/>
     </row>
     <row r="34" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A34" s="53"/>
-      <c r="B34" s="53"/>
-      <c r="C34" s="53"/>
-      <c r="D34" s="53"/>
-      <c r="E34" s="53"/>
-      <c r="F34" s="53"/>
-      <c r="G34" s="53"/>
-      <c r="H34" s="53"/>
-      <c r="I34" s="53"/>
-      <c r="J34" s="53"/>
-      <c r="K34" s="53"/>
-      <c r="L34" s="53"/>
-      <c r="M34" s="53"/>
-      <c r="N34" s="53"/>
-      <c r="O34" s="53"/>
-      <c r="P34" s="53"/>
-      <c r="Q34" s="53"/>
-      <c r="R34" s="53"/>
-      <c r="S34" s="53"/>
+      <c r="A34" s="51"/>
+      <c r="B34" s="51"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="51"/>
+      <c r="I34" s="51"/>
+      <c r="J34" s="51"/>
+      <c r="K34" s="51"/>
+      <c r="L34" s="51"/>
+      <c r="M34" s="51"/>
+      <c r="N34" s="51"/>
+      <c r="O34" s="51"/>
+      <c r="P34" s="51"/>
+      <c r="Q34" s="51"/>
+      <c r="R34" s="51"/>
+      <c r="S34" s="51"/>
     </row>
     <row r="35" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A35" s="53"/>
-      <c r="B35" s="53"/>
-      <c r="C35" s="53"/>
-      <c r="D35" s="53"/>
-      <c r="E35" s="53"/>
-      <c r="F35" s="53"/>
-      <c r="G35" s="53"/>
-      <c r="H35" s="53"/>
-      <c r="I35" s="53"/>
-      <c r="J35" s="53"/>
-      <c r="K35" s="53"/>
-      <c r="L35" s="53"/>
-      <c r="M35" s="53"/>
-      <c r="N35" s="53"/>
-      <c r="O35" s="53"/>
-      <c r="P35" s="53"/>
-      <c r="Q35" s="53"/>
-      <c r="R35" s="53"/>
-      <c r="S35" s="53"/>
+      <c r="A35" s="51"/>
+      <c r="B35" s="51"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="51"/>
+      <c r="G35" s="51"/>
+      <c r="H35" s="51"/>
+      <c r="I35" s="51"/>
+      <c r="J35" s="51"/>
+      <c r="K35" s="51"/>
+      <c r="L35" s="51"/>
+      <c r="M35" s="51"/>
+      <c r="N35" s="51"/>
+      <c r="O35" s="51"/>
+      <c r="P35" s="51"/>
+      <c r="Q35" s="51"/>
+      <c r="R35" s="51"/>
+      <c r="S35" s="51"/>
     </row>
     <row r="36" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A36" s="53"/>
-      <c r="B36" s="53"/>
-      <c r="C36" s="53"/>
-      <c r="D36" s="53"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="53"/>
-      <c r="H36" s="53"/>
-      <c r="I36" s="53"/>
-      <c r="J36" s="53"/>
-      <c r="K36" s="53"/>
-      <c r="L36" s="53"/>
-      <c r="M36" s="53"/>
-      <c r="N36" s="53"/>
-      <c r="O36" s="53"/>
-      <c r="P36" s="53"/>
-      <c r="Q36" s="53"/>
-      <c r="R36" s="53"/>
-      <c r="S36" s="53"/>
+      <c r="A36" s="51"/>
+      <c r="B36" s="51"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="51"/>
+      <c r="I36" s="51"/>
+      <c r="J36" s="51"/>
+      <c r="K36" s="51"/>
+      <c r="L36" s="51"/>
+      <c r="M36" s="51"/>
+      <c r="N36" s="51"/>
+      <c r="O36" s="51"/>
+      <c r="P36" s="51"/>
+      <c r="Q36" s="51"/>
+      <c r="R36" s="51"/>
+      <c r="S36" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A30:P36"/>
-    <mergeCell ref="I18:P20"/>
-    <mergeCell ref="Q9:S36"/>
-    <mergeCell ref="I24:P26"/>
-    <mergeCell ref="I9:P11"/>
-    <mergeCell ref="I21:P23"/>
-    <mergeCell ref="A15:H17"/>
-    <mergeCell ref="A18:H20"/>
     <mergeCell ref="I6:S8"/>
     <mergeCell ref="A1:S5"/>
     <mergeCell ref="A6:H8"/>
@@ -2515,6 +2507,14 @@
     <mergeCell ref="A21:H23"/>
     <mergeCell ref="I12:P14"/>
     <mergeCell ref="I15:P17"/>
+    <mergeCell ref="A30:P36"/>
+    <mergeCell ref="I18:P20"/>
+    <mergeCell ref="Q9:S36"/>
+    <mergeCell ref="I24:P26"/>
+    <mergeCell ref="I9:P11"/>
+    <mergeCell ref="I21:P23"/>
+    <mergeCell ref="A15:H17"/>
+    <mergeCell ref="A18:H20"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A9" location="Team!A1" display="Team &amp; Roles"/>
@@ -2539,248 +2539,248 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:19">
-      <c r="A1" s="62" t="s">
+    <row r="1" spans="1:19" ht="12.75">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
     </row>
     <row r="2" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A2" s="53"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
     </row>
     <row r="3" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A3" s="53"/>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="53"/>
-      <c r="S3" s="53"/>
+      <c r="A3" s="51"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="51"/>
+      <c r="S3" s="51"/>
     </row>
     <row r="4" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A4" s="53"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="53"/>
-      <c r="S4" s="53"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
+      <c r="P4" s="51"/>
+      <c r="Q4" s="51"/>
+      <c r="R4" s="51"/>
+      <c r="S4" s="51"/>
     </row>
     <row r="5" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A5" s="53"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="53"/>
-      <c r="P5" s="53"/>
-      <c r="Q5" s="53"/>
-      <c r="R5" s="53"/>
-      <c r="S5" s="53"/>
-    </row>
-    <row r="6" spans="1:19">
-      <c r="A6" s="61" t="s">
+      <c r="A5" s="51"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="51"/>
+      <c r="Q5" s="51"/>
+      <c r="R5" s="51"/>
+      <c r="S5" s="51"/>
+    </row>
+    <row r="6" spans="1:19" ht="12.75">
+      <c r="A6" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="61" t="s">
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="53"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="53"/>
-      <c r="R6" s="53"/>
-      <c r="S6" s="53"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="51"/>
+      <c r="O6" s="51"/>
+      <c r="P6" s="51"/>
+      <c r="Q6" s="51"/>
+      <c r="R6" s="51"/>
+      <c r="S6" s="51"/>
     </row>
     <row r="7" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A7" s="53"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="53"/>
-      <c r="R7" s="53"/>
-      <c r="S7" s="53"/>
+      <c r="A7" s="51"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="51"/>
+      <c r="O7" s="51"/>
+      <c r="P7" s="51"/>
+      <c r="Q7" s="51"/>
+      <c r="R7" s="51"/>
+      <c r="S7" s="51"/>
     </row>
     <row r="8" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A8" s="53"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="53"/>
-      <c r="O8" s="53"/>
-      <c r="P8" s="53"/>
-      <c r="Q8" s="53"/>
-      <c r="R8" s="53"/>
-      <c r="S8" s="53"/>
-    </row>
-    <row r="9" spans="1:19">
-      <c r="A9" s="78" t="s">
+      <c r="A8" s="51"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="51"/>
+      <c r="O8" s="51"/>
+      <c r="P8" s="51"/>
+      <c r="Q8" s="51"/>
+      <c r="R8" s="51"/>
+      <c r="S8" s="51"/>
+    </row>
+    <row r="9" spans="1:19" ht="12.75">
+      <c r="A9" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="79" t="s">
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="51"/>
-      <c r="M9" s="51"/>
-      <c r="N9" s="51"/>
-      <c r="O9" s="51"/>
-      <c r="P9" s="51"/>
-      <c r="Q9" s="70"/>
-      <c r="R9" s="53"/>
-      <c r="S9" s="53"/>
-    </row>
-    <row r="10" spans="1:19">
-      <c r="A10" s="53"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="53"/>
-      <c r="O10" s="53"/>
-      <c r="P10" s="53"/>
-      <c r="Q10" s="53"/>
-      <c r="R10" s="53"/>
-      <c r="S10" s="53"/>
-    </row>
-    <row r="11" spans="1:19">
-      <c r="A11" s="66"/>
-      <c r="B11" s="66"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="66"/>
-      <c r="L11" s="66"/>
-      <c r="M11" s="66"/>
-      <c r="N11" s="66"/>
-      <c r="O11" s="66"/>
-      <c r="P11" s="66"/>
-      <c r="Q11" s="53"/>
-      <c r="R11" s="53"/>
-      <c r="S11" s="53"/>
-    </row>
-    <row r="12" spans="1:19">
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="53"/>
+      <c r="P9" s="53"/>
+      <c r="Q9" s="50"/>
+      <c r="R9" s="51"/>
+      <c r="S9" s="51"/>
+    </row>
+    <row r="10" spans="1:19" ht="12.75">
+      <c r="A10" s="51"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="51"/>
+      <c r="N10" s="51"/>
+      <c r="O10" s="51"/>
+      <c r="P10" s="51"/>
+      <c r="Q10" s="51"/>
+      <c r="R10" s="51"/>
+      <c r="S10" s="51"/>
+    </row>
+    <row r="11" spans="1:19" ht="12.75">
+      <c r="A11" s="67"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="67"/>
+      <c r="M11" s="67"/>
+      <c r="N11" s="67"/>
+      <c r="O11" s="67"/>
+      <c r="P11" s="67"/>
+      <c r="Q11" s="51"/>
+      <c r="R11" s="51"/>
+      <c r="S11" s="51"/>
+    </row>
+    <row r="12" spans="1:19" ht="12.75">
       <c r="A12" s="74" t="s">
         <v>5</v>
       </c>
@@ -2801,53 +2801,53 @@
       <c r="N12" s="73"/>
       <c r="O12" s="73"/>
       <c r="P12" s="73"/>
-      <c r="Q12" s="53"/>
-      <c r="R12" s="53"/>
-      <c r="S12" s="53"/>
-    </row>
-    <row r="13" spans="1:19">
-      <c r="A13" s="53"/>
-      <c r="B13" s="53"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="53"/>
-      <c r="O13" s="53"/>
-      <c r="P13" s="53"/>
-      <c r="Q13" s="53"/>
-      <c r="R13" s="53"/>
-      <c r="S13" s="53"/>
-    </row>
-    <row r="14" spans="1:19">
-      <c r="A14" s="66"/>
-      <c r="B14" s="66"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="66"/>
-      <c r="K14" s="66"/>
-      <c r="L14" s="66"/>
-      <c r="M14" s="66"/>
-      <c r="N14" s="66"/>
-      <c r="O14" s="66"/>
-      <c r="P14" s="66"/>
-      <c r="Q14" s="53"/>
-      <c r="R14" s="53"/>
-      <c r="S14" s="53"/>
-    </row>
-    <row r="15" spans="1:19">
+      <c r="Q12" s="51"/>
+      <c r="R12" s="51"/>
+      <c r="S12" s="51"/>
+    </row>
+    <row r="13" spans="1:19" ht="12.75">
+      <c r="A13" s="51"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="51"/>
+      <c r="Q13" s="51"/>
+      <c r="R13" s="51"/>
+      <c r="S13" s="51"/>
+    </row>
+    <row r="14" spans="1:19" ht="12.75">
+      <c r="A14" s="67"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="67"/>
+      <c r="K14" s="67"/>
+      <c r="L14" s="67"/>
+      <c r="M14" s="67"/>
+      <c r="N14" s="67"/>
+      <c r="O14" s="67"/>
+      <c r="P14" s="67"/>
+      <c r="Q14" s="51"/>
+      <c r="R14" s="51"/>
+      <c r="S14" s="51"/>
+    </row>
+    <row r="15" spans="1:19" ht="12.75">
       <c r="A15" s="74" t="s">
         <v>6</v>
       </c>
@@ -2868,53 +2868,53 @@
       <c r="N15" s="73"/>
       <c r="O15" s="73"/>
       <c r="P15" s="73"/>
-      <c r="Q15" s="53"/>
-      <c r="R15" s="53"/>
-      <c r="S15" s="53"/>
-    </row>
-    <row r="16" spans="1:19">
-      <c r="A16" s="53"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="68"/>
-      <c r="I16" s="64"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="53"/>
-      <c r="O16" s="53"/>
-      <c r="P16" s="53"/>
-      <c r="Q16" s="53"/>
-      <c r="R16" s="53"/>
-      <c r="S16" s="53"/>
-    </row>
-    <row r="17" spans="1:19">
-      <c r="A17" s="66"/>
-      <c r="B17" s="66"/>
-      <c r="C17" s="66"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="65"/>
-      <c r="J17" s="66"/>
-      <c r="K17" s="66"/>
-      <c r="L17" s="66"/>
-      <c r="M17" s="66"/>
-      <c r="N17" s="66"/>
-      <c r="O17" s="66"/>
-      <c r="P17" s="66"/>
-      <c r="Q17" s="53"/>
-      <c r="R17" s="53"/>
-      <c r="S17" s="53"/>
-    </row>
-    <row r="18" spans="1:19">
+      <c r="Q15" s="51"/>
+      <c r="R15" s="51"/>
+      <c r="S15" s="51"/>
+    </row>
+    <row r="16" spans="1:19" ht="12.75">
+      <c r="A16" s="51"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="51"/>
+      <c r="M16" s="51"/>
+      <c r="N16" s="51"/>
+      <c r="O16" s="51"/>
+      <c r="P16" s="51"/>
+      <c r="Q16" s="51"/>
+      <c r="R16" s="51"/>
+      <c r="S16" s="51"/>
+    </row>
+    <row r="17" spans="1:19" ht="12.75">
+      <c r="A17" s="67"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="67"/>
+      <c r="K17" s="67"/>
+      <c r="L17" s="67"/>
+      <c r="M17" s="67"/>
+      <c r="N17" s="67"/>
+      <c r="O17" s="67"/>
+      <c r="P17" s="67"/>
+      <c r="Q17" s="51"/>
+      <c r="R17" s="51"/>
+      <c r="S17" s="51"/>
+    </row>
+    <row r="18" spans="1:19" ht="12.75">
       <c r="A18" s="74" t="s">
         <v>8</v>
       </c>
@@ -2935,53 +2935,53 @@
       <c r="N18" s="73"/>
       <c r="O18" s="73"/>
       <c r="P18" s="73"/>
-      <c r="Q18" s="53"/>
-      <c r="R18" s="53"/>
-      <c r="S18" s="53"/>
-    </row>
-    <row r="19" spans="1:19">
-      <c r="A19" s="53"/>
-      <c r="B19" s="53"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="68"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="53"/>
-      <c r="N19" s="53"/>
-      <c r="O19" s="53"/>
-      <c r="P19" s="53"/>
-      <c r="Q19" s="53"/>
-      <c r="R19" s="53"/>
-      <c r="S19" s="53"/>
-    </row>
-    <row r="20" spans="1:19">
-      <c r="A20" s="66"/>
-      <c r="B20" s="66"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="69"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="66"/>
-      <c r="K20" s="66"/>
-      <c r="L20" s="66"/>
-      <c r="M20" s="66"/>
-      <c r="N20" s="66"/>
-      <c r="O20" s="66"/>
-      <c r="P20" s="66"/>
-      <c r="Q20" s="53"/>
-      <c r="R20" s="53"/>
-      <c r="S20" s="53"/>
-    </row>
-    <row r="21" spans="1:19">
+      <c r="Q18" s="51"/>
+      <c r="R18" s="51"/>
+      <c r="S18" s="51"/>
+    </row>
+    <row r="19" spans="1:19" ht="12.75">
+      <c r="A19" s="51"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="51"/>
+      <c r="L19" s="51"/>
+      <c r="M19" s="51"/>
+      <c r="N19" s="51"/>
+      <c r="O19" s="51"/>
+      <c r="P19" s="51"/>
+      <c r="Q19" s="51"/>
+      <c r="R19" s="51"/>
+      <c r="S19" s="51"/>
+    </row>
+    <row r="20" spans="1:19" ht="12.75">
+      <c r="A20" s="67"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="67"/>
+      <c r="K20" s="67"/>
+      <c r="L20" s="67"/>
+      <c r="M20" s="67"/>
+      <c r="N20" s="67"/>
+      <c r="O20" s="67"/>
+      <c r="P20" s="67"/>
+      <c r="Q20" s="51"/>
+      <c r="R20" s="51"/>
+      <c r="S20" s="51"/>
+    </row>
+    <row r="21" spans="1:19" ht="12.75">
       <c r="A21" s="74" t="s">
         <v>10</v>
       </c>
@@ -3002,53 +3002,53 @@
       <c r="N21" s="73"/>
       <c r="O21" s="73"/>
       <c r="P21" s="73"/>
-      <c r="Q21" s="53"/>
-      <c r="R21" s="53"/>
-      <c r="S21" s="53"/>
-    </row>
-    <row r="22" spans="1:19">
-      <c r="A22" s="53"/>
-      <c r="B22" s="53"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="68"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="53"/>
-      <c r="N22" s="53"/>
-      <c r="O22" s="53"/>
-      <c r="P22" s="53"/>
-      <c r="Q22" s="53"/>
-      <c r="R22" s="53"/>
-      <c r="S22" s="53"/>
-    </row>
-    <row r="23" spans="1:19">
-      <c r="A23" s="66"/>
-      <c r="B23" s="66"/>
-      <c r="C23" s="66"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="69"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="66"/>
-      <c r="K23" s="66"/>
-      <c r="L23" s="66"/>
-      <c r="M23" s="66"/>
-      <c r="N23" s="66"/>
-      <c r="O23" s="66"/>
-      <c r="P23" s="66"/>
-      <c r="Q23" s="53"/>
-      <c r="R23" s="53"/>
-      <c r="S23" s="53"/>
-    </row>
-    <row r="24" spans="1:19">
+      <c r="Q21" s="51"/>
+      <c r="R21" s="51"/>
+      <c r="S21" s="51"/>
+    </row>
+    <row r="22" spans="1:19" ht="12.75">
+      <c r="A22" s="51"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="69"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="51"/>
+      <c r="L22" s="51"/>
+      <c r="M22" s="51"/>
+      <c r="N22" s="51"/>
+      <c r="O22" s="51"/>
+      <c r="P22" s="51"/>
+      <c r="Q22" s="51"/>
+      <c r="R22" s="51"/>
+      <c r="S22" s="51"/>
+    </row>
+    <row r="23" spans="1:19" ht="12.75">
+      <c r="A23" s="67"/>
+      <c r="B23" s="67"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="70"/>
+      <c r="I23" s="66"/>
+      <c r="J23" s="67"/>
+      <c r="K23" s="67"/>
+      <c r="L23" s="67"/>
+      <c r="M23" s="67"/>
+      <c r="N23" s="67"/>
+      <c r="O23" s="67"/>
+      <c r="P23" s="67"/>
+      <c r="Q23" s="51"/>
+      <c r="R23" s="51"/>
+      <c r="S23" s="51"/>
+    </row>
+    <row r="24" spans="1:19" ht="12.75">
       <c r="A24" s="74" t="s">
         <v>12</v>
       </c>
@@ -3069,263 +3069,263 @@
       <c r="N24" s="73"/>
       <c r="O24" s="73"/>
       <c r="P24" s="73"/>
-      <c r="Q24" s="53"/>
-      <c r="R24" s="53"/>
-      <c r="S24" s="53"/>
-    </row>
-    <row r="25" spans="1:19">
-      <c r="A25" s="53"/>
-      <c r="B25" s="53"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="64"/>
-      <c r="J25" s="53"/>
-      <c r="K25" s="53"/>
-      <c r="L25" s="53"/>
-      <c r="M25" s="53"/>
-      <c r="N25" s="53"/>
-      <c r="O25" s="53"/>
-      <c r="P25" s="53"/>
-      <c r="Q25" s="53"/>
-      <c r="R25" s="53"/>
-      <c r="S25" s="53"/>
-    </row>
-    <row r="26" spans="1:19">
-      <c r="A26" s="66"/>
-      <c r="B26" s="66"/>
-      <c r="C26" s="66"/>
-      <c r="D26" s="66"/>
-      <c r="E26" s="66"/>
-      <c r="F26" s="66"/>
-      <c r="G26" s="66"/>
-      <c r="H26" s="69"/>
-      <c r="I26" s="65"/>
-      <c r="J26" s="66"/>
-      <c r="K26" s="66"/>
-      <c r="L26" s="66"/>
-      <c r="M26" s="66"/>
-      <c r="N26" s="66"/>
-      <c r="O26" s="66"/>
-      <c r="P26" s="66"/>
-      <c r="Q26" s="53"/>
-      <c r="R26" s="53"/>
-      <c r="S26" s="53"/>
-    </row>
-    <row r="27" spans="1:19">
-      <c r="A27" s="76"/>
-      <c r="B27" s="53"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="76"/>
-      <c r="J27" s="53"/>
-      <c r="K27" s="53"/>
-      <c r="L27" s="53"/>
-      <c r="M27" s="53"/>
-      <c r="N27" s="53"/>
-      <c r="O27" s="53"/>
-      <c r="P27" s="53"/>
-      <c r="Q27" s="53"/>
-      <c r="R27" s="53"/>
-      <c r="S27" s="53"/>
+      <c r="Q24" s="51"/>
+      <c r="R24" s="51"/>
+      <c r="S24" s="51"/>
+    </row>
+    <row r="25" spans="1:19" ht="12.75">
+      <c r="A25" s="51"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="69"/>
+      <c r="I25" s="65"/>
+      <c r="J25" s="51"/>
+      <c r="K25" s="51"/>
+      <c r="L25" s="51"/>
+      <c r="M25" s="51"/>
+      <c r="N25" s="51"/>
+      <c r="O25" s="51"/>
+      <c r="P25" s="51"/>
+      <c r="Q25" s="51"/>
+      <c r="R25" s="51"/>
+      <c r="S25" s="51"/>
+    </row>
+    <row r="26" spans="1:19" ht="12.75">
+      <c r="A26" s="67"/>
+      <c r="B26" s="67"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="70"/>
+      <c r="I26" s="66"/>
+      <c r="J26" s="67"/>
+      <c r="K26" s="67"/>
+      <c r="L26" s="67"/>
+      <c r="M26" s="67"/>
+      <c r="N26" s="67"/>
+      <c r="O26" s="67"/>
+      <c r="P26" s="67"/>
+      <c r="Q26" s="51"/>
+      <c r="R26" s="51"/>
+      <c r="S26" s="51"/>
+    </row>
+    <row r="27" spans="1:19" ht="12.75">
+      <c r="A27" s="77"/>
+      <c r="B27" s="51"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="77"/>
+      <c r="J27" s="51"/>
+      <c r="K27" s="51"/>
+      <c r="L27" s="51"/>
+      <c r="M27" s="51"/>
+      <c r="N27" s="51"/>
+      <c r="O27" s="51"/>
+      <c r="P27" s="51"/>
+      <c r="Q27" s="51"/>
+      <c r="R27" s="51"/>
+      <c r="S27" s="51"/>
     </row>
     <row r="28" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A28" s="53"/>
-      <c r="B28" s="53"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="53"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="53"/>
-      <c r="J28" s="53"/>
-      <c r="K28" s="53"/>
-      <c r="L28" s="53"/>
-      <c r="M28" s="53"/>
-      <c r="N28" s="53"/>
-      <c r="O28" s="53"/>
-      <c r="P28" s="53"/>
-      <c r="Q28" s="53"/>
-      <c r="R28" s="53"/>
-      <c r="S28" s="53"/>
+      <c r="A28" s="51"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="51"/>
+      <c r="K28" s="51"/>
+      <c r="L28" s="51"/>
+      <c r="M28" s="51"/>
+      <c r="N28" s="51"/>
+      <c r="O28" s="51"/>
+      <c r="P28" s="51"/>
+      <c r="Q28" s="51"/>
+      <c r="R28" s="51"/>
+      <c r="S28" s="51"/>
     </row>
     <row r="29" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A29" s="53"/>
-      <c r="B29" s="53"/>
-      <c r="C29" s="53"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="53"/>
-      <c r="J29" s="53"/>
-      <c r="K29" s="53"/>
-      <c r="L29" s="53"/>
-      <c r="M29" s="53"/>
-      <c r="N29" s="53"/>
-      <c r="O29" s="53"/>
-      <c r="P29" s="53"/>
-      <c r="Q29" s="53"/>
-      <c r="R29" s="53"/>
-      <c r="S29" s="53"/>
-    </row>
-    <row r="30" spans="1:19">
-      <c r="A30" s="77"/>
-      <c r="B30" s="53"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="53"/>
-      <c r="G30" s="53"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="53"/>
-      <c r="J30" s="53"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="53"/>
-      <c r="M30" s="53"/>
-      <c r="N30" s="53"/>
-      <c r="O30" s="53"/>
-      <c r="P30" s="53"/>
-      <c r="Q30" s="53"/>
-      <c r="R30" s="53"/>
-      <c r="S30" s="53"/>
+      <c r="A29" s="51"/>
+      <c r="B29" s="51"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="51"/>
+      <c r="J29" s="51"/>
+      <c r="K29" s="51"/>
+      <c r="L29" s="51"/>
+      <c r="M29" s="51"/>
+      <c r="N29" s="51"/>
+      <c r="O29" s="51"/>
+      <c r="P29" s="51"/>
+      <c r="Q29" s="51"/>
+      <c r="R29" s="51"/>
+      <c r="S29" s="51"/>
+    </row>
+    <row r="30" spans="1:19" ht="12.75">
+      <c r="A30" s="78"/>
+      <c r="B30" s="51"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="51"/>
+      <c r="J30" s="51"/>
+      <c r="K30" s="51"/>
+      <c r="L30" s="51"/>
+      <c r="M30" s="51"/>
+      <c r="N30" s="51"/>
+      <c r="O30" s="51"/>
+      <c r="P30" s="51"/>
+      <c r="Q30" s="51"/>
+      <c r="R30" s="51"/>
+      <c r="S30" s="51"/>
     </row>
     <row r="31" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A31" s="53"/>
-      <c r="B31" s="53"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="53"/>
-      <c r="H31" s="53"/>
-      <c r="I31" s="53"/>
-      <c r="J31" s="53"/>
-      <c r="K31" s="53"/>
-      <c r="L31" s="53"/>
-      <c r="M31" s="53"/>
-      <c r="N31" s="53"/>
-      <c r="O31" s="53"/>
-      <c r="P31" s="53"/>
-      <c r="Q31" s="53"/>
-      <c r="R31" s="53"/>
-      <c r="S31" s="53"/>
+      <c r="A31" s="51"/>
+      <c r="B31" s="51"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="51"/>
+      <c r="K31" s="51"/>
+      <c r="L31" s="51"/>
+      <c r="M31" s="51"/>
+      <c r="N31" s="51"/>
+      <c r="O31" s="51"/>
+      <c r="P31" s="51"/>
+      <c r="Q31" s="51"/>
+      <c r="R31" s="51"/>
+      <c r="S31" s="51"/>
     </row>
     <row r="32" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A32" s="53"/>
-      <c r="B32" s="53"/>
-      <c r="C32" s="53"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="53"/>
-      <c r="F32" s="53"/>
-      <c r="G32" s="53"/>
-      <c r="H32" s="53"/>
-      <c r="I32" s="53"/>
-      <c r="J32" s="53"/>
-      <c r="K32" s="53"/>
-      <c r="L32" s="53"/>
-      <c r="M32" s="53"/>
-      <c r="N32" s="53"/>
-      <c r="O32" s="53"/>
-      <c r="P32" s="53"/>
-      <c r="Q32" s="53"/>
-      <c r="R32" s="53"/>
-      <c r="S32" s="53"/>
+      <c r="A32" s="51"/>
+      <c r="B32" s="51"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="51"/>
+      <c r="J32" s="51"/>
+      <c r="K32" s="51"/>
+      <c r="L32" s="51"/>
+      <c r="M32" s="51"/>
+      <c r="N32" s="51"/>
+      <c r="O32" s="51"/>
+      <c r="P32" s="51"/>
+      <c r="Q32" s="51"/>
+      <c r="R32" s="51"/>
+      <c r="S32" s="51"/>
     </row>
     <row r="33" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A33" s="53"/>
-      <c r="B33" s="53"/>
-      <c r="C33" s="53"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="53"/>
-      <c r="H33" s="53"/>
-      <c r="I33" s="53"/>
-      <c r="J33" s="53"/>
-      <c r="K33" s="53"/>
-      <c r="L33" s="53"/>
-      <c r="M33" s="53"/>
-      <c r="N33" s="53"/>
-      <c r="O33" s="53"/>
-      <c r="P33" s="53"/>
-      <c r="Q33" s="53"/>
-      <c r="R33" s="53"/>
-      <c r="S33" s="53"/>
+      <c r="A33" s="51"/>
+      <c r="B33" s="51"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="51"/>
+      <c r="J33" s="51"/>
+      <c r="K33" s="51"/>
+      <c r="L33" s="51"/>
+      <c r="M33" s="51"/>
+      <c r="N33" s="51"/>
+      <c r="O33" s="51"/>
+      <c r="P33" s="51"/>
+      <c r="Q33" s="51"/>
+      <c r="R33" s="51"/>
+      <c r="S33" s="51"/>
     </row>
     <row r="34" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A34" s="53"/>
-      <c r="B34" s="53"/>
-      <c r="C34" s="53"/>
-      <c r="D34" s="53"/>
-      <c r="E34" s="53"/>
-      <c r="F34" s="53"/>
-      <c r="G34" s="53"/>
-      <c r="H34" s="53"/>
-      <c r="I34" s="53"/>
-      <c r="J34" s="53"/>
-      <c r="K34" s="53"/>
-      <c r="L34" s="53"/>
-      <c r="M34" s="53"/>
-      <c r="N34" s="53"/>
-      <c r="O34" s="53"/>
-      <c r="P34" s="53"/>
-      <c r="Q34" s="53"/>
-      <c r="R34" s="53"/>
-      <c r="S34" s="53"/>
+      <c r="A34" s="51"/>
+      <c r="B34" s="51"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="51"/>
+      <c r="I34" s="51"/>
+      <c r="J34" s="51"/>
+      <c r="K34" s="51"/>
+      <c r="L34" s="51"/>
+      <c r="M34" s="51"/>
+      <c r="N34" s="51"/>
+      <c r="O34" s="51"/>
+      <c r="P34" s="51"/>
+      <c r="Q34" s="51"/>
+      <c r="R34" s="51"/>
+      <c r="S34" s="51"/>
     </row>
     <row r="35" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A35" s="53"/>
-      <c r="B35" s="53"/>
-      <c r="C35" s="53"/>
-      <c r="D35" s="53"/>
-      <c r="E35" s="53"/>
-      <c r="F35" s="53"/>
-      <c r="G35" s="53"/>
-      <c r="H35" s="53"/>
-      <c r="I35" s="53"/>
-      <c r="J35" s="53"/>
-      <c r="K35" s="53"/>
-      <c r="L35" s="53"/>
-      <c r="M35" s="53"/>
-      <c r="N35" s="53"/>
-      <c r="O35" s="53"/>
-      <c r="P35" s="53"/>
-      <c r="Q35" s="53"/>
-      <c r="R35" s="53"/>
-      <c r="S35" s="53"/>
+      <c r="A35" s="51"/>
+      <c r="B35" s="51"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="51"/>
+      <c r="G35" s="51"/>
+      <c r="H35" s="51"/>
+      <c r="I35" s="51"/>
+      <c r="J35" s="51"/>
+      <c r="K35" s="51"/>
+      <c r="L35" s="51"/>
+      <c r="M35" s="51"/>
+      <c r="N35" s="51"/>
+      <c r="O35" s="51"/>
+      <c r="P35" s="51"/>
+      <c r="Q35" s="51"/>
+      <c r="R35" s="51"/>
+      <c r="S35" s="51"/>
     </row>
     <row r="36" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A36" s="53"/>
-      <c r="B36" s="53"/>
-      <c r="C36" s="53"/>
-      <c r="D36" s="53"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="53"/>
-      <c r="H36" s="53"/>
-      <c r="I36" s="53"/>
-      <c r="J36" s="53"/>
-      <c r="K36" s="53"/>
-      <c r="L36" s="53"/>
-      <c r="M36" s="53"/>
-      <c r="N36" s="53"/>
-      <c r="O36" s="53"/>
-      <c r="P36" s="53"/>
-      <c r="Q36" s="53"/>
-      <c r="R36" s="53"/>
-      <c r="S36" s="53"/>
-    </row>
-    <row r="37" spans="1:19">
+      <c r="A36" s="51"/>
+      <c r="B36" s="51"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="51"/>
+      <c r="I36" s="51"/>
+      <c r="J36" s="51"/>
+      <c r="K36" s="51"/>
+      <c r="L36" s="51"/>
+      <c r="M36" s="51"/>
+      <c r="N36" s="51"/>
+      <c r="O36" s="51"/>
+      <c r="P36" s="51"/>
+      <c r="Q36" s="51"/>
+      <c r="R36" s="51"/>
+      <c r="S36" s="51"/>
+    </row>
+    <row r="37" spans="1:19" ht="23.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -3343,7 +3343,7 @@
       <c r="O37" s="1"/>
       <c r="P37" s="2"/>
     </row>
-    <row r="38" spans="1:19">
+    <row r="38" spans="1:19" ht="23.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -3363,6 +3363,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A18:H20"/>
+    <mergeCell ref="A12:H14"/>
+    <mergeCell ref="A15:H17"/>
     <mergeCell ref="A1:S5"/>
     <mergeCell ref="I18:P20"/>
     <mergeCell ref="A21:H23"/>
@@ -3379,9 +3382,6 @@
     <mergeCell ref="I6:S8"/>
     <mergeCell ref="I21:P23"/>
     <mergeCell ref="I24:P26"/>
-    <mergeCell ref="A18:H20"/>
-    <mergeCell ref="A12:H14"/>
-    <mergeCell ref="A15:H17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3406,41 +3406,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12.75">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="83" t="s">
+      <c r="B1" s="51"/>
+      <c r="C1" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A2" s="53"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="80"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="81"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -3448,15 +3448,15 @@
       <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10" ht="23.25">
-      <c r="A4" s="53"/>
-      <c r="B4" s="53"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="51"/>
       <c r="C4" s="8" t="s">
         <v>33</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="53"/>
+      <c r="E4" s="51"/>
       <c r="F4" s="8" t="s">
         <v>33</v>
       </c>
@@ -3468,15 +3468,15 @@
       <c r="J4" s="10"/>
     </row>
     <row r="5" spans="1:10" ht="23.25">
-      <c r="A5" s="53"/>
-      <c r="B5" s="53"/>
+      <c r="A5" s="51"/>
+      <c r="B5" s="51"/>
       <c r="C5" s="11" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="53"/>
+      <c r="E5" s="51"/>
       <c r="F5" s="11" t="s">
         <v>16</v>
       </c>
@@ -3488,39 +3488,39 @@
       <c r="J5" s="10"/>
     </row>
     <row r="6" spans="1:10" ht="12.75">
-      <c r="A6" s="53"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="53"/>
+      <c r="A6" s="51"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="51"/>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
     </row>
     <row r="7" spans="1:10" ht="12.75">
-      <c r="A7" s="53"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="80"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="53"/>
+      <c r="A7" s="51"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="51"/>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
     </row>
     <row r="8" spans="1:10" ht="23.25">
-      <c r="A8" s="53"/>
-      <c r="B8" s="53"/>
+      <c r="A8" s="51"/>
+      <c r="B8" s="51"/>
       <c r="C8" s="8" t="s">
         <v>33</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="53"/>
+      <c r="E8" s="51"/>
       <c r="F8" s="8" t="s">
         <v>33</v>
       </c>
@@ -3532,15 +3532,15 @@
       <c r="J8" s="10"/>
     </row>
     <row r="9" spans="1:10" ht="46.5">
-      <c r="A9" s="53"/>
-      <c r="B9" s="53"/>
+      <c r="A9" s="51"/>
+      <c r="B9" s="51"/>
       <c r="C9" s="11" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="53"/>
+      <c r="E9" s="51"/>
       <c r="F9" s="11" t="s">
         <v>16</v>
       </c>
@@ -3552,39 +3552,39 @@
       <c r="J9" s="10"/>
     </row>
     <row r="10" spans="1:10" ht="12.75">
-      <c r="A10" s="53"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="81"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="53"/>
+      <c r="A10" s="51"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="51"/>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
     </row>
     <row r="11" spans="1:10" ht="12.75">
-      <c r="A11" s="53"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="80"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="80"/>
-      <c r="G11" s="53"/>
+      <c r="A11" s="51"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="51"/>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
     </row>
     <row r="12" spans="1:10" ht="23.25">
-      <c r="A12" s="53"/>
-      <c r="B12" s="53"/>
+      <c r="A12" s="51"/>
+      <c r="B12" s="51"/>
       <c r="C12" s="8" t="s">
         <v>33</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="53"/>
+      <c r="E12" s="51"/>
       <c r="F12" s="8" t="s">
         <v>33</v>
       </c>
@@ -3596,15 +3596,15 @@
       <c r="J12" s="10"/>
     </row>
     <row r="13" spans="1:10" ht="46.5">
-      <c r="A13" s="53"/>
-      <c r="B13" s="53"/>
+      <c r="A13" s="51"/>
+      <c r="B13" s="51"/>
       <c r="C13" s="11" t="s">
         <v>16</v>
       </c>
       <c r="D13" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="53"/>
+      <c r="E13" s="51"/>
       <c r="F13" s="11" t="s">
         <v>16</v>
       </c>
@@ -3616,39 +3616,39 @@
       <c r="J13" s="10"/>
     </row>
     <row r="14" spans="1:10" ht="12.75">
-      <c r="A14" s="53"/>
-      <c r="B14" s="53"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="53"/>
+      <c r="A14" s="51"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="51"/>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
     </row>
     <row r="15" spans="1:10" ht="12.75">
-      <c r="A15" s="53"/>
-      <c r="B15" s="53"/>
-      <c r="C15" s="80"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="80"/>
-      <c r="G15" s="53"/>
+      <c r="A15" s="51"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="51"/>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
     </row>
     <row r="16" spans="1:10" ht="23.25">
-      <c r="A16" s="53"/>
-      <c r="B16" s="53"/>
+      <c r="A16" s="51"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="8" t="s">
         <v>33</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="53"/>
+      <c r="E16" s="51"/>
       <c r="F16" s="8" t="s">
         <v>33</v>
       </c>
@@ -3660,15 +3660,15 @@
       <c r="J16" s="10"/>
     </row>
     <row r="17" spans="1:10" ht="46.5">
-      <c r="A17" s="53"/>
-      <c r="B17" s="53"/>
+      <c r="A17" s="51"/>
+      <c r="B17" s="51"/>
       <c r="C17" s="11" t="s">
         <v>16</v>
       </c>
       <c r="D17" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="E17" s="53"/>
+      <c r="E17" s="51"/>
       <c r="F17" s="11" t="s">
         <v>16</v>
       </c>
@@ -3680,39 +3680,39 @@
       <c r="J17" s="10"/>
     </row>
     <row r="18" spans="1:10" ht="12.75">
-      <c r="A18" s="53"/>
-      <c r="B18" s="53"/>
-      <c r="C18" s="81"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="53"/>
+      <c r="A18" s="51"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="82"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="51"/>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
     </row>
     <row r="19" spans="1:10" ht="12.75">
-      <c r="A19" s="53"/>
-      <c r="B19" s="53"/>
-      <c r="C19" s="80"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="80"/>
-      <c r="G19" s="53"/>
+      <c r="A19" s="51"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="51"/>
       <c r="H19" s="10"/>
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
     </row>
     <row r="20" spans="1:10" ht="23.25">
-      <c r="A20" s="53"/>
-      <c r="B20" s="53"/>
+      <c r="A20" s="51"/>
+      <c r="B20" s="51"/>
       <c r="C20" s="8" t="s">
         <v>33</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="53"/>
+      <c r="E20" s="51"/>
       <c r="F20" s="8" t="s">
         <v>33</v>
       </c>
@@ -3724,15 +3724,15 @@
       <c r="J20" s="10"/>
     </row>
     <row r="21" spans="1:10" ht="46.5">
-      <c r="A21" s="53"/>
-      <c r="B21" s="53"/>
+      <c r="A21" s="51"/>
+      <c r="B21" s="51"/>
       <c r="C21" s="11" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E21" s="53"/>
+      <c r="E21" s="51"/>
       <c r="F21" s="11" t="s">
         <v>16</v>
       </c>
@@ -3744,39 +3744,39 @@
       <c r="J21" s="10"/>
     </row>
     <row r="22" spans="1:10" ht="12.75">
-      <c r="A22" s="53"/>
-      <c r="B22" s="53"/>
-      <c r="C22" s="81"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="81"/>
-      <c r="G22" s="53"/>
+      <c r="A22" s="51"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="82"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="82"/>
+      <c r="G22" s="51"/>
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
       <c r="J22" s="10"/>
     </row>
     <row r="23" spans="1:10" ht="12.75">
-      <c r="A23" s="53"/>
-      <c r="B23" s="53"/>
-      <c r="C23" s="80"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="53"/>
+      <c r="A23" s="51"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="81"/>
+      <c r="G23" s="51"/>
       <c r="H23" s="10"/>
       <c r="I23" s="10"/>
       <c r="J23" s="10"/>
     </row>
     <row r="24" spans="1:10" ht="23.25">
-      <c r="A24" s="53"/>
-      <c r="B24" s="53"/>
+      <c r="A24" s="51"/>
+      <c r="B24" s="51"/>
       <c r="C24" s="8" t="s">
         <v>33</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="53"/>
+      <c r="E24" s="51"/>
       <c r="F24" s="8" t="s">
         <v>33</v>
       </c>
@@ -3788,15 +3788,15 @@
       <c r="J24" s="10"/>
     </row>
     <row r="25" spans="1:10" ht="69.75">
-      <c r="A25" s="53"/>
-      <c r="B25" s="53"/>
+      <c r="A25" s="51"/>
+      <c r="B25" s="51"/>
       <c r="C25" s="11" t="s">
         <v>16</v>
       </c>
       <c r="D25" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="E25" s="53"/>
+      <c r="E25" s="51"/>
       <c r="F25" s="11" t="s">
         <v>16</v>
       </c>
@@ -3808,39 +3808,39 @@
       <c r="J25" s="10"/>
     </row>
     <row r="26" spans="1:10" ht="12.75">
-      <c r="A26" s="53"/>
-      <c r="B26" s="53"/>
-      <c r="C26" s="81"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="81"/>
-      <c r="G26" s="53"/>
+      <c r="A26" s="51"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="82"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="82"/>
+      <c r="G26" s="51"/>
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
       <c r="J26" s="10"/>
     </row>
     <row r="27" spans="1:10" ht="12.75">
-      <c r="A27" s="53"/>
-      <c r="B27" s="53"/>
-      <c r="C27" s="80"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="80"/>
-      <c r="G27" s="53"/>
+      <c r="A27" s="51"/>
+      <c r="B27" s="51"/>
+      <c r="C27" s="81"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="81"/>
+      <c r="G27" s="51"/>
       <c r="H27" s="10"/>
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
     </row>
     <row r="28" spans="1:10" ht="23.25">
-      <c r="A28" s="53"/>
-      <c r="B28" s="53"/>
+      <c r="A28" s="51"/>
+      <c r="B28" s="51"/>
       <c r="C28" s="8" t="s">
         <v>33</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E28" s="53"/>
+      <c r="E28" s="51"/>
       <c r="F28" s="8"/>
       <c r="G28" s="9"/>
       <c r="H28" s="10"/>
@@ -3848,15 +3848,15 @@
       <c r="J28" s="10"/>
     </row>
     <row r="29" spans="1:10" ht="46.5">
-      <c r="A29" s="53"/>
-      <c r="B29" s="53"/>
+      <c r="A29" s="51"/>
+      <c r="B29" s="51"/>
       <c r="C29" s="11" t="s">
         <v>16</v>
       </c>
       <c r="D29" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="E29" s="53"/>
+      <c r="E29" s="51"/>
       <c r="F29" s="11"/>
       <c r="G29" s="13"/>
       <c r="H29" s="10"/>
@@ -3864,11 +3864,11 @@
       <c r="J29" s="10"/>
     </row>
     <row r="30" spans="1:10" ht="12.75">
-      <c r="A30" s="53"/>
-      <c r="B30" s="53"/>
-      <c r="C30" s="81"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="53"/>
+      <c r="A30" s="51"/>
+      <c r="B30" s="51"/>
+      <c r="C30" s="82"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="51"/>
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
@@ -3876,11 +3876,11 @@
       <c r="J30" s="10"/>
     </row>
     <row r="31" spans="1:10" ht="12.75">
-      <c r="A31" s="53"/>
-      <c r="B31" s="53"/>
-      <c r="C31" s="80"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="53"/>
+      <c r="A31" s="51"/>
+      <c r="B31" s="51"/>
+      <c r="C31" s="81"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
@@ -3888,11 +3888,11 @@
       <c r="J31" s="10"/>
     </row>
     <row r="32" spans="1:10" ht="23.25">
-      <c r="A32" s="53"/>
-      <c r="B32" s="53"/>
+      <c r="A32" s="51"/>
+      <c r="B32" s="51"/>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
-      <c r="E32" s="53"/>
+      <c r="E32" s="51"/>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
@@ -3904,7 +3904,7 @@
       <c r="B33" s="15"/>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
-      <c r="E33" s="53"/>
+      <c r="E33" s="51"/>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
@@ -3912,11 +3912,27 @@
       <c r="J33" s="10"/>
     </row>
     <row r="34" spans="1:10" ht="15.75" customHeight="1">
-      <c r="C34" s="53"/>
-      <c r="D34" s="53"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:J2"/>
     <mergeCell ref="C7:D7"/>
@@ -3933,22 +3949,6 @@
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="C30:D30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3966,26 +3966,26 @@
   <sheetData>
     <row r="1" spans="1:17" ht="44.25">
       <c r="A1" s="85"/>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
       <c r="F1" s="84"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
     </row>
     <row r="2" spans="1:17" ht="23.25">
       <c r="A2" s="86"/>
-      <c r="B2" s="53"/>
+      <c r="B2" s="51"/>
       <c r="C2" s="16" t="s">
         <v>60</v>
       </c>
@@ -4005,8 +4005,8 @@
       <c r="Q2" s="16"/>
     </row>
     <row r="3" spans="1:17" ht="23.25">
-      <c r="A3" s="53"/>
-      <c r="B3" s="53"/>
+      <c r="A3" s="51"/>
+      <c r="B3" s="51"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
       <c r="E3" s="16"/>
@@ -4024,8 +4024,8 @@
       <c r="Q3" s="16"/>
     </row>
     <row r="4" spans="1:17" ht="23.25">
-      <c r="A4" s="53"/>
-      <c r="B4" s="53"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="51"/>
       <c r="C4" s="16"/>
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
@@ -4043,8 +4043,8 @@
       <c r="Q4" s="16"/>
     </row>
     <row r="5" spans="1:17" ht="23.25">
-      <c r="A5" s="53"/>
-      <c r="B5" s="53"/>
+      <c r="A5" s="51"/>
+      <c r="B5" s="51"/>
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
@@ -4062,8 +4062,8 @@
       <c r="Q5" s="16"/>
     </row>
     <row r="6" spans="1:17" ht="23.25">
-      <c r="A6" s="53"/>
-      <c r="B6" s="53"/>
+      <c r="A6" s="51"/>
+      <c r="B6" s="51"/>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
@@ -4081,8 +4081,8 @@
       <c r="Q6" s="16"/>
     </row>
     <row r="7" spans="1:17" ht="23.25">
-      <c r="A7" s="53"/>
-      <c r="B7" s="53"/>
+      <c r="A7" s="51"/>
+      <c r="B7" s="51"/>
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
@@ -4100,8 +4100,8 @@
       <c r="Q7" s="16"/>
     </row>
     <row r="8" spans="1:17" ht="23.25">
-      <c r="A8" s="53"/>
-      <c r="B8" s="53"/>
+      <c r="A8" s="51"/>
+      <c r="B8" s="51"/>
       <c r="C8" s="16"/>
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
@@ -4119,8 +4119,8 @@
       <c r="Q8" s="16"/>
     </row>
     <row r="9" spans="1:17" ht="23.25">
-      <c r="A9" s="53"/>
-      <c r="B9" s="53"/>
+      <c r="A9" s="51"/>
+      <c r="B9" s="51"/>
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
@@ -4138,8 +4138,8 @@
       <c r="Q9" s="16"/>
     </row>
     <row r="10" spans="1:17" ht="23.25">
-      <c r="A10" s="53"/>
-      <c r="B10" s="53"/>
+      <c r="A10" s="51"/>
+      <c r="B10" s="51"/>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
@@ -4157,8 +4157,8 @@
       <c r="Q10" s="16"/>
     </row>
     <row r="11" spans="1:17" ht="23.25">
-      <c r="A11" s="53"/>
-      <c r="B11" s="53"/>
+      <c r="A11" s="51"/>
+      <c r="B11" s="51"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
@@ -4176,8 +4176,8 @@
       <c r="Q11" s="16"/>
     </row>
     <row r="12" spans="1:17" ht="23.25">
-      <c r="A12" s="53"/>
-      <c r="B12" s="53"/>
+      <c r="A12" s="51"/>
+      <c r="B12" s="51"/>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
@@ -4195,8 +4195,8 @@
       <c r="Q12" s="16"/>
     </row>
     <row r="13" spans="1:17" ht="23.25">
-      <c r="A13" s="53"/>
-      <c r="B13" s="53"/>
+      <c r="A13" s="51"/>
+      <c r="B13" s="51"/>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
       <c r="E13" s="16"/>
@@ -4214,8 +4214,8 @@
       <c r="Q13" s="16"/>
     </row>
     <row r="14" spans="1:17" ht="23.25">
-      <c r="A14" s="53"/>
-      <c r="B14" s="53"/>
+      <c r="A14" s="51"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
@@ -4233,8 +4233,8 @@
       <c r="Q14" s="16"/>
     </row>
     <row r="15" spans="1:17" ht="23.25">
-      <c r="A15" s="53"/>
-      <c r="B15" s="53"/>
+      <c r="A15" s="51"/>
+      <c r="B15" s="51"/>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
       <c r="E15" s="16"/>
@@ -4252,8 +4252,8 @@
       <c r="Q15" s="16"/>
     </row>
     <row r="16" spans="1:17" ht="23.25">
-      <c r="A16" s="53"/>
-      <c r="B16" s="53"/>
+      <c r="A16" s="51"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
@@ -4271,8 +4271,8 @@
       <c r="Q16" s="16"/>
     </row>
     <row r="17" spans="1:17" ht="23.25">
-      <c r="A17" s="53"/>
-      <c r="B17" s="53"/>
+      <c r="A17" s="51"/>
+      <c r="B17" s="51"/>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
@@ -4290,8 +4290,8 @@
       <c r="Q17" s="16"/>
     </row>
     <row r="18" spans="1:17" ht="23.25">
-      <c r="A18" s="53"/>
-      <c r="B18" s="53"/>
+      <c r="A18" s="51"/>
+      <c r="B18" s="51"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
@@ -4309,8 +4309,8 @@
       <c r="Q18" s="16"/>
     </row>
     <row r="19" spans="1:17" ht="23.25">
-      <c r="A19" s="53"/>
-      <c r="B19" s="53"/>
+      <c r="A19" s="51"/>
+      <c r="B19" s="51"/>
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
       <c r="E19" s="16"/>
@@ -4328,8 +4328,8 @@
       <c r="Q19" s="16"/>
     </row>
     <row r="20" spans="1:17" ht="23.25">
-      <c r="A20" s="53"/>
-      <c r="B20" s="53"/>
+      <c r="A20" s="51"/>
+      <c r="B20" s="51"/>
       <c r="C20" s="16"/>
       <c r="D20" s="16"/>
       <c r="E20" s="16"/>
@@ -4347,8 +4347,8 @@
       <c r="Q20" s="16"/>
     </row>
     <row r="21" spans="1:17" ht="23.25">
-      <c r="A21" s="53"/>
-      <c r="B21" s="53"/>
+      <c r="A21" s="51"/>
+      <c r="B21" s="51"/>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
@@ -4366,8 +4366,8 @@
       <c r="Q21" s="16"/>
     </row>
     <row r="22" spans="1:17" ht="23.25">
-      <c r="A22" s="53"/>
-      <c r="B22" s="53"/>
+      <c r="A22" s="51"/>
+      <c r="B22" s="51"/>
       <c r="C22" s="16"/>
       <c r="D22" s="16"/>
       <c r="E22" s="16"/>
@@ -4385,8 +4385,8 @@
       <c r="Q22" s="16"/>
     </row>
     <row r="23" spans="1:17" ht="23.25">
-      <c r="A23" s="53"/>
-      <c r="B23" s="53"/>
+      <c r="A23" s="51"/>
+      <c r="B23" s="51"/>
       <c r="C23" s="16"/>
       <c r="D23" s="16"/>
       <c r="E23" s="16"/>
@@ -4404,8 +4404,8 @@
       <c r="Q23" s="16"/>
     </row>
     <row r="24" spans="1:17" ht="23.25">
-      <c r="A24" s="53"/>
-      <c r="B24" s="53"/>
+      <c r="A24" s="51"/>
+      <c r="B24" s="51"/>
       <c r="C24" s="16"/>
       <c r="D24" s="16"/>
       <c r="E24" s="16"/>
@@ -4423,8 +4423,8 @@
       <c r="Q24" s="16"/>
     </row>
     <row r="25" spans="1:17" ht="23.25">
-      <c r="A25" s="53"/>
-      <c r="B25" s="53"/>
+      <c r="A25" s="51"/>
+      <c r="B25" s="51"/>
       <c r="C25" s="16"/>
       <c r="D25" s="16"/>
       <c r="E25" s="16"/>
@@ -4442,8 +4442,8 @@
       <c r="Q25" s="16"/>
     </row>
     <row r="26" spans="1:17" ht="23.25">
-      <c r="A26" s="53"/>
-      <c r="B26" s="53"/>
+      <c r="A26" s="51"/>
+      <c r="B26" s="51"/>
       <c r="C26" s="16"/>
       <c r="D26" s="16"/>
       <c r="E26" s="16"/>
@@ -4461,8 +4461,8 @@
       <c r="Q26" s="16"/>
     </row>
     <row r="27" spans="1:17" ht="23.25">
-      <c r="A27" s="53"/>
-      <c r="B27" s="53"/>
+      <c r="A27" s="51"/>
+      <c r="B27" s="51"/>
       <c r="C27" s="16"/>
       <c r="D27" s="16"/>
       <c r="E27" s="16"/>
@@ -4480,8 +4480,8 @@
       <c r="Q27" s="16"/>
     </row>
     <row r="28" spans="1:17" ht="23.25">
-      <c r="A28" s="53"/>
-      <c r="B28" s="53"/>
+      <c r="A28" s="51"/>
+      <c r="B28" s="51"/>
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
@@ -4499,8 +4499,8 @@
       <c r="Q28" s="16"/>
     </row>
     <row r="29" spans="1:17" ht="23.25">
-      <c r="A29" s="53"/>
-      <c r="B29" s="53"/>
+      <c r="A29" s="51"/>
+      <c r="B29" s="51"/>
       <c r="C29" s="16"/>
       <c r="D29" s="16"/>
       <c r="E29" s="16"/>
@@ -4518,8 +4518,8 @@
       <c r="Q29" s="16"/>
     </row>
     <row r="30" spans="1:17" ht="23.25">
-      <c r="A30" s="53"/>
-      <c r="B30" s="53"/>
+      <c r="A30" s="51"/>
+      <c r="B30" s="51"/>
       <c r="C30" s="16"/>
       <c r="D30" s="16"/>
       <c r="E30" s="16"/>
@@ -4537,8 +4537,8 @@
       <c r="Q30" s="16"/>
     </row>
     <row r="31" spans="1:17" ht="23.25">
-      <c r="A31" s="53"/>
-      <c r="B31" s="53"/>
+      <c r="A31" s="51"/>
+      <c r="B31" s="51"/>
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
@@ -4556,8 +4556,8 @@
       <c r="Q31" s="16"/>
     </row>
     <row r="32" spans="1:17" ht="23.25">
-      <c r="A32" s="53"/>
-      <c r="B32" s="53"/>
+      <c r="A32" s="51"/>
+      <c r="B32" s="51"/>
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
@@ -4591,7 +4591,7 @@
   <dimension ref="A1:Y1005"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="53" zoomScaleNormal="53" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -4610,15 +4610,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="44.25" customHeight="1">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="87" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="90" t="s">
+      <c r="B1" s="88"/>
+      <c r="C1" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
       <c r="F1" s="22" t="s">
         <v>101</v>
       </c>
@@ -4626,11 +4626,11 @@
         <v>43167</v>
       </c>
       <c r="H1" s="21"/>
-      <c r="I1" s="90" t="s">
+      <c r="I1" s="87" t="s">
         <v>69</v>
       </c>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
       <c r="L1" s="22" t="s">
         <v>101</v>
       </c>
@@ -4638,11 +4638,11 @@
         <v>43176</v>
       </c>
       <c r="N1" s="21"/>
-      <c r="O1" s="90" t="s">
+      <c r="O1" s="87" t="s">
         <v>73</v>
       </c>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
       <c r="R1" s="22" t="s">
         <v>101</v>
       </c>
@@ -4650,11 +4650,11 @@
         <v>43190</v>
       </c>
       <c r="T1" s="21"/>
-      <c r="U1" s="90" t="s">
+      <c r="U1" s="87" t="s">
         <v>77</v>
       </c>
-      <c r="V1" s="53"/>
-      <c r="W1" s="53"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
       <c r="X1" s="22" t="s">
         <v>101</v>
       </c>
@@ -4663,11 +4663,11 @@
       </c>
     </row>
     <row r="2" spans="1:25" ht="44.25" customHeight="1">
-      <c r="A2" s="53"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
       <c r="F2" s="22" t="s">
         <v>102</v>
       </c>
@@ -4675,9 +4675,9 @@
         <v>43174</v>
       </c>
       <c r="H2" s="21"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
       <c r="L2" s="22" t="s">
         <v>102</v>
       </c>
@@ -4685,9 +4685,9 @@
         <v>43188</v>
       </c>
       <c r="N2" s="21"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
       <c r="R2" s="22" t="s">
         <v>102</v>
       </c>
@@ -4695,9 +4695,9 @@
         <v>43202</v>
       </c>
       <c r="T2" s="21"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="53"/>
-      <c r="W2" s="53"/>
+      <c r="U2" s="51"/>
+      <c r="V2" s="51"/>
+      <c r="W2" s="51"/>
       <c r="X2" s="22" t="s">
         <v>102</v>
       </c>
@@ -4707,10 +4707,10 @@
     </row>
     <row r="3" spans="1:25" ht="44.25" customHeight="1">
       <c r="A3" s="20"/>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
       <c r="F3" s="22" t="s">
         <v>103</v>
       </c>
@@ -4718,9 +4718,9 @@
         <v>43174</v>
       </c>
       <c r="H3" s="21"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
       <c r="L3" s="22" t="s">
         <v>103</v>
       </c>
@@ -4728,9 +4728,9 @@
         <v>43188</v>
       </c>
       <c r="N3" s="21"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="53"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
       <c r="R3" s="22" t="s">
         <v>103</v>
       </c>
@@ -4738,9 +4738,9 @@
         <v>43202</v>
       </c>
       <c r="T3" s="21"/>
-      <c r="U3" s="53"/>
-      <c r="V3" s="53"/>
-      <c r="W3" s="53"/>
+      <c r="U3" s="51"/>
+      <c r="V3" s="51"/>
+      <c r="W3" s="51"/>
       <c r="X3" s="22" t="s">
         <v>103</v>
       </c>
@@ -4750,7 +4750,7 @@
     </row>
     <row r="4" spans="1:25" ht="20.25" customHeight="1" thickBot="1">
       <c r="A4" s="20"/>
-      <c r="B4" s="53"/>
+      <c r="B4" s="51"/>
       <c r="C4" s="24" t="s">
         <v>104</v>
       </c>
@@ -4819,7 +4819,7 @@
       <c r="A5" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="B5" s="53"/>
+      <c r="B5" s="51"/>
       <c r="C5" s="28" t="s">
         <v>110</v>
       </c>
@@ -4862,7 +4862,7 @@
       <c r="A6" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="B6" s="53"/>
+      <c r="B6" s="51"/>
       <c r="C6" s="28" t="s">
         <v>114</v>
       </c>
@@ -4905,7 +4905,7 @@
       <c r="A7" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="B7" s="53"/>
+      <c r="B7" s="51"/>
       <c r="C7" s="33"/>
       <c r="D7" s="32"/>
       <c r="E7" s="32"/>
@@ -4940,7 +4940,7 @@
       <c r="A8" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="B8" s="53"/>
+      <c r="B8" s="51"/>
       <c r="C8" s="38" t="s">
         <v>118</v>
       </c>
@@ -4977,7 +4977,7 @@
       <c r="A9" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="B9" s="53"/>
+      <c r="B9" s="51"/>
       <c r="C9" s="38" t="s">
         <v>120</v>
       </c>
@@ -5020,7 +5020,7 @@
       <c r="A10" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="B10" s="53"/>
+      <c r="B10" s="51"/>
       <c r="C10" s="33"/>
       <c r="D10" s="32"/>
       <c r="E10" s="32"/>
@@ -5055,7 +5055,7 @@
       <c r="A11" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="B11" s="53"/>
+      <c r="B11" s="51"/>
       <c r="C11" s="39" t="s">
         <v>124</v>
       </c>
@@ -5098,7 +5098,7 @@
       <c r="A12" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="B12" s="53"/>
+      <c r="B12" s="51"/>
       <c r="C12" s="39" t="s">
         <v>125</v>
       </c>
@@ -5135,7 +5135,7 @@
       <c r="A13" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="B13" s="53"/>
+      <c r="B13" s="51"/>
       <c r="C13" s="39" t="s">
         <v>127</v>
       </c>
@@ -5178,7 +5178,7 @@
       <c r="A14" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="B14" s="53"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="33"/>
       <c r="D14" s="32"/>
       <c r="E14" s="32"/>
@@ -5213,7 +5213,7 @@
       <c r="A15" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="B15" s="53"/>
+      <c r="B15" s="51"/>
       <c r="C15" s="33"/>
       <c r="D15" s="32"/>
       <c r="E15" s="32"/>
@@ -5248,7 +5248,7 @@
       <c r="A16" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="B16" s="53"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="33"/>
       <c r="D16" s="32"/>
       <c r="E16" s="32"/>
@@ -5277,7 +5277,7 @@
       <c r="A17" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="B17" s="53"/>
+      <c r="B17" s="51"/>
       <c r="C17" s="33"/>
       <c r="D17" s="32"/>
       <c r="E17" s="32"/>
@@ -5306,7 +5306,7 @@
       <c r="A18" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="B18" s="53"/>
+      <c r="B18" s="51"/>
       <c r="C18" s="33"/>
       <c r="D18" s="32"/>
       <c r="E18" s="32"/>
@@ -5332,8 +5332,8 @@
       <c r="Y18" s="33"/>
     </row>
     <row r="19" spans="1:25" ht="30">
-      <c r="A19" s="87"/>
-      <c r="B19" s="53"/>
+      <c r="A19" s="89"/>
+      <c r="B19" s="51"/>
       <c r="C19" s="33"/>
       <c r="D19" s="32"/>
       <c r="E19" s="32"/>
@@ -5359,8 +5359,8 @@
       <c r="Y19" s="33"/>
     </row>
     <row r="20" spans="1:25" ht="30">
-      <c r="A20" s="88"/>
-      <c r="B20" s="53"/>
+      <c r="A20" s="90"/>
+      <c r="B20" s="51"/>
       <c r="C20" s="33"/>
       <c r="D20" s="32"/>
       <c r="E20" s="32"/>
@@ -5386,8 +5386,8 @@
       <c r="Y20" s="33"/>
     </row>
     <row r="21" spans="1:25" ht="83.25" customHeight="1">
-      <c r="A21" s="89"/>
-      <c r="B21" s="53"/>
+      <c r="A21" s="91"/>
+      <c r="B21" s="51"/>
       <c r="C21" s="33"/>
       <c r="D21" s="32"/>
       <c r="E21" s="32"/>
@@ -5416,7 +5416,7 @@
       <c r="A22" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="B22" s="53"/>
+      <c r="B22" s="51"/>
       <c r="C22" s="33"/>
       <c r="D22" s="32"/>
       <c r="E22" s="32"/>
@@ -5445,7 +5445,7 @@
       <c r="A23" s="41" t="s">
         <v>133</v>
       </c>
-      <c r="B23" s="53"/>
+      <c r="B23" s="51"/>
       <c r="C23" s="33"/>
       <c r="D23" s="33"/>
       <c r="E23" s="33"/>
@@ -5474,7 +5474,7 @@
       <c r="A24" s="41" t="s">
         <v>134</v>
       </c>
-      <c r="B24" s="53"/>
+      <c r="B24" s="51"/>
       <c r="C24" s="33"/>
       <c r="D24" s="33"/>
       <c r="E24" s="33"/>
@@ -5503,7 +5503,7 @@
       <c r="A25" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="B25" s="53"/>
+      <c r="B25" s="51"/>
       <c r="C25" s="33"/>
       <c r="D25" s="33"/>
       <c r="E25" s="33"/>
@@ -5532,7 +5532,7 @@
       <c r="A26" s="41" t="s">
         <v>136</v>
       </c>
-      <c r="B26" s="53"/>
+      <c r="B26" s="51"/>
       <c r="C26" s="33"/>
       <c r="D26" s="33"/>
       <c r="E26" s="33"/>
@@ -5561,7 +5561,7 @@
       <c r="A27" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="B27" s="53"/>
+      <c r="B27" s="51"/>
       <c r="C27" s="42"/>
       <c r="D27" s="33"/>
       <c r="E27" s="33"/>
@@ -5590,7 +5590,7 @@
       <c r="A28" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="B28" s="53"/>
+      <c r="B28" s="51"/>
       <c r="C28" s="33"/>
       <c r="D28" s="33"/>
       <c r="E28" s="33"/>
@@ -5619,7 +5619,7 @@
       <c r="A29" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="B29" s="53"/>
+      <c r="B29" s="51"/>
       <c r="C29" s="33"/>
       <c r="D29" s="33"/>
       <c r="E29" s="33"/>
@@ -5648,7 +5648,7 @@
       <c r="A30" s="41" t="s">
         <v>139</v>
       </c>
-      <c r="B30" s="53"/>
+      <c r="B30" s="51"/>
       <c r="C30" s="33"/>
       <c r="D30" s="33"/>
       <c r="E30" s="33"/>
@@ -5677,7 +5677,7 @@
       <c r="A31" s="41" t="s">
         <v>140</v>
       </c>
-      <c r="B31" s="53"/>
+      <c r="B31" s="51"/>
       <c r="C31" s="42"/>
       <c r="D31" s="42"/>
       <c r="E31" s="42"/>
@@ -5706,7 +5706,7 @@
       <c r="A32" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="B32" s="53"/>
+      <c r="B32" s="51"/>
       <c r="C32" s="42"/>
       <c r="D32" s="42"/>
       <c r="E32" s="42"/>
@@ -5735,7 +5735,7 @@
       <c r="A33" s="41" t="s">
         <v>142</v>
       </c>
-      <c r="B33" s="53"/>
+      <c r="B33" s="51"/>
       <c r="C33" s="42"/>
       <c r="D33" s="42"/>
       <c r="E33" s="42"/>
@@ -5764,7 +5764,7 @@
       <c r="A34" s="41" t="s">
         <v>143</v>
       </c>
-      <c r="B34" s="53"/>
+      <c r="B34" s="51"/>
       <c r="C34" s="42"/>
       <c r="D34" s="42"/>
       <c r="E34" s="42"/>
@@ -5793,7 +5793,7 @@
       <c r="A35" s="41" t="s">
         <v>144</v>
       </c>
-      <c r="B35" s="53"/>
+      <c r="B35" s="51"/>
       <c r="C35" s="42"/>
       <c r="D35" s="42"/>
       <c r="E35" s="42"/>
@@ -5822,7 +5822,7 @@
       <c r="A36" s="41" t="s">
         <v>145</v>
       </c>
-      <c r="B36" s="53"/>
+      <c r="B36" s="51"/>
       <c r="C36" s="42"/>
       <c r="D36" s="42"/>
       <c r="E36" s="42"/>
@@ -5851,7 +5851,7 @@
       <c r="A37" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="B37" s="53"/>
+      <c r="B37" s="51"/>
       <c r="C37" s="42"/>
       <c r="D37" s="42"/>
       <c r="E37" s="42"/>
@@ -5876,11 +5876,11 @@
       <c r="X37" s="42"/>
       <c r="Y37" s="42"/>
     </row>
-    <row r="38" spans="1:25" ht="30">
+    <row r="38" spans="1:25" ht="51">
       <c r="A38" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="B38" s="53"/>
+      <c r="B38" s="51"/>
       <c r="C38" s="42"/>
       <c r="D38" s="42"/>
       <c r="E38" s="42"/>
@@ -5907,7 +5907,7 @@
     </row>
     <row r="39" spans="1:25" ht="30">
       <c r="A39" s="43"/>
-      <c r="B39" s="53"/>
+      <c r="B39" s="51"/>
       <c r="C39" s="42"/>
       <c r="D39" s="42"/>
       <c r="E39" s="42"/>
@@ -6212,7 +6212,7 @@
       <c r="O54" s="44"/>
     </row>
     <row r="55" spans="1:15" ht="30">
-      <c r="A55" s="87"/>
+      <c r="A55" s="89"/>
       <c r="B55" s="44"/>
       <c r="C55" s="44"/>
       <c r="D55" s="44"/>
@@ -6229,7 +6229,7 @@
       <c r="O55" s="44"/>
     </row>
     <row r="56" spans="1:15" ht="30">
-      <c r="A56" s="88"/>
+      <c r="A56" s="90"/>
       <c r="B56" s="44"/>
       <c r="C56" s="44"/>
       <c r="D56" s="44"/>
@@ -6246,7 +6246,7 @@
       <c r="O56" s="44"/>
     </row>
     <row r="57" spans="1:15" ht="30">
-      <c r="A57" s="89"/>
+      <c r="A57" s="91"/>
       <c r="B57" s="44"/>
       <c r="C57" s="44"/>
       <c r="D57" s="44"/>
@@ -6263,7 +6263,7 @@
       <c r="O57" s="44"/>
     </row>
     <row r="58" spans="1:15" ht="30">
-      <c r="A58" s="87"/>
+      <c r="A58" s="89"/>
       <c r="B58" s="44"/>
       <c r="C58" s="44"/>
       <c r="D58" s="44"/>
@@ -6280,7 +6280,7 @@
       <c r="O58" s="44"/>
     </row>
     <row r="59" spans="1:15" ht="30">
-      <c r="A59" s="88"/>
+      <c r="A59" s="90"/>
       <c r="B59" s="44"/>
       <c r="C59" s="44"/>
       <c r="D59" s="44"/>
@@ -6297,7 +6297,7 @@
       <c r="O59" s="44"/>
     </row>
     <row r="60" spans="1:15" ht="30">
-      <c r="A60" s="89"/>
+      <c r="A60" s="91"/>
       <c r="B60" s="44"/>
       <c r="C60" s="44"/>
       <c r="D60" s="44"/>
@@ -6331,7 +6331,7 @@
       <c r="O61" s="44"/>
     </row>
     <row r="62" spans="1:15" ht="30">
-      <c r="A62" s="87"/>
+      <c r="A62" s="89"/>
       <c r="B62" s="44"/>
       <c r="C62" s="44"/>
       <c r="D62" s="44"/>
@@ -6348,7 +6348,7 @@
       <c r="O62" s="44"/>
     </row>
     <row r="63" spans="1:15" ht="30">
-      <c r="A63" s="88"/>
+      <c r="A63" s="90"/>
       <c r="B63" s="44"/>
       <c r="C63" s="44"/>
       <c r="D63" s="44"/>
@@ -6365,7 +6365,7 @@
       <c r="O63" s="44"/>
     </row>
     <row r="64" spans="1:15" ht="30">
-      <c r="A64" s="89"/>
+      <c r="A64" s="91"/>
       <c r="B64" s="44"/>
       <c r="C64" s="44"/>
       <c r="D64" s="44"/>
@@ -6382,7 +6382,7 @@
       <c r="O64" s="44"/>
     </row>
     <row r="65" spans="1:15" ht="30">
-      <c r="A65" s="87"/>
+      <c r="A65" s="89"/>
       <c r="B65" s="44"/>
       <c r="C65" s="44"/>
       <c r="D65" s="44"/>
@@ -6399,7 +6399,7 @@
       <c r="O65" s="44"/>
     </row>
     <row r="66" spans="1:15" ht="30">
-      <c r="A66" s="88"/>
+      <c r="A66" s="90"/>
       <c r="B66" s="44"/>
       <c r="C66" s="44"/>
       <c r="D66" s="44"/>
@@ -6416,7 +6416,7 @@
       <c r="O66" s="44"/>
     </row>
     <row r="67" spans="1:15" ht="30">
-      <c r="A67" s="89"/>
+      <c r="A67" s="91"/>
       <c r="B67" s="44"/>
       <c r="C67" s="44"/>
       <c r="D67" s="44"/>
@@ -6433,7 +6433,7 @@
       <c r="O67" s="44"/>
     </row>
     <row r="68" spans="1:15" ht="30">
-      <c r="A68" s="87"/>
+      <c r="A68" s="89"/>
       <c r="B68" s="44"/>
       <c r="C68" s="44"/>
       <c r="D68" s="44"/>
@@ -6450,7 +6450,7 @@
       <c r="O68" s="44"/>
     </row>
     <row r="69" spans="1:15" ht="30">
-      <c r="A69" s="88"/>
+      <c r="A69" s="90"/>
       <c r="B69" s="44"/>
       <c r="C69" s="44"/>
       <c r="D69" s="44"/>
@@ -6467,7 +6467,7 @@
       <c r="O69" s="44"/>
     </row>
     <row r="70" spans="1:15" ht="30">
-      <c r="A70" s="89"/>
+      <c r="A70" s="91"/>
       <c r="B70" s="44"/>
       <c r="C70" s="44"/>
       <c r="D70" s="44"/>
@@ -6484,7 +6484,7 @@
       <c r="O70" s="44"/>
     </row>
     <row r="71" spans="1:15" ht="30">
-      <c r="A71" s="87"/>
+      <c r="A71" s="89"/>
       <c r="B71" s="44"/>
       <c r="C71" s="44"/>
       <c r="D71" s="44"/>
@@ -6501,7 +6501,7 @@
       <c r="O71" s="44"/>
     </row>
     <row r="72" spans="1:15" ht="30">
-      <c r="A72" s="88"/>
+      <c r="A72" s="90"/>
       <c r="B72" s="44"/>
       <c r="C72" s="44"/>
       <c r="D72" s="44"/>
@@ -6518,7 +6518,7 @@
       <c r="O72" s="44"/>
     </row>
     <row r="73" spans="1:15" ht="30">
-      <c r="A73" s="89"/>
+      <c r="A73" s="91"/>
       <c r="B73" s="44"/>
       <c r="C73" s="44"/>
       <c r="D73" s="44"/>
@@ -6535,7 +6535,7 @@
       <c r="O73" s="44"/>
     </row>
     <row r="74" spans="1:15" ht="30">
-      <c r="A74" s="87"/>
+      <c r="A74" s="89"/>
       <c r="B74" s="44"/>
       <c r="C74" s="44"/>
       <c r="D74" s="44"/>
@@ -6552,7 +6552,7 @@
       <c r="O74" s="44"/>
     </row>
     <row r="75" spans="1:15" ht="30">
-      <c r="A75" s="88"/>
+      <c r="A75" s="90"/>
       <c r="B75" s="44"/>
       <c r="C75" s="44"/>
       <c r="D75" s="44"/>
@@ -6569,7 +6569,7 @@
       <c r="O75" s="44"/>
     </row>
     <row r="76" spans="1:15" ht="30">
-      <c r="A76" s="89"/>
+      <c r="A76" s="91"/>
       <c r="B76" s="44"/>
       <c r="C76" s="44"/>
       <c r="D76" s="44"/>
@@ -6586,7 +6586,7 @@
       <c r="O76" s="44"/>
     </row>
     <row r="77" spans="1:15" ht="30">
-      <c r="A77" s="87"/>
+      <c r="A77" s="89"/>
       <c r="B77" s="44"/>
       <c r="C77" s="44"/>
       <c r="D77" s="44"/>
@@ -6603,7 +6603,7 @@
       <c r="O77" s="44"/>
     </row>
     <row r="78" spans="1:15" ht="30">
-      <c r="A78" s="88"/>
+      <c r="A78" s="90"/>
       <c r="B78" s="44"/>
       <c r="C78" s="44"/>
       <c r="D78" s="44"/>
@@ -6620,7 +6620,7 @@
       <c r="O78" s="44"/>
     </row>
     <row r="79" spans="1:15" ht="30">
-      <c r="A79" s="89"/>
+      <c r="A79" s="91"/>
       <c r="B79" s="44"/>
       <c r="C79" s="44"/>
       <c r="D79" s="44"/>
@@ -6637,7 +6637,7 @@
       <c r="O79" s="44"/>
     </row>
     <row r="80" spans="1:15" ht="30">
-      <c r="A80" s="87"/>
+      <c r="A80" s="89"/>
       <c r="B80" s="44"/>
       <c r="C80" s="44"/>
       <c r="D80" s="44"/>
@@ -6654,7 +6654,7 @@
       <c r="O80" s="44"/>
     </row>
     <row r="81" spans="1:15" ht="30">
-      <c r="A81" s="88"/>
+      <c r="A81" s="90"/>
       <c r="B81" s="44"/>
       <c r="C81" s="44"/>
       <c r="D81" s="44"/>
@@ -6671,7 +6671,7 @@
       <c r="O81" s="44"/>
     </row>
     <row r="82" spans="1:15" ht="30">
-      <c r="A82" s="89"/>
+      <c r="A82" s="91"/>
       <c r="B82" s="44"/>
       <c r="C82" s="44"/>
       <c r="D82" s="44"/>
@@ -6688,7 +6688,7 @@
       <c r="O82" s="44"/>
     </row>
     <row r="83" spans="1:15" ht="30">
-      <c r="A83" s="87"/>
+      <c r="A83" s="89"/>
       <c r="B83" s="44"/>
       <c r="C83" s="44"/>
       <c r="D83" s="44"/>
@@ -6705,7 +6705,7 @@
       <c r="O83" s="44"/>
     </row>
     <row r="84" spans="1:15" ht="30">
-      <c r="A84" s="88"/>
+      <c r="A84" s="90"/>
       <c r="B84" s="44"/>
       <c r="C84" s="44"/>
       <c r="D84" s="44"/>
@@ -6722,7 +6722,7 @@
       <c r="O84" s="44"/>
     </row>
     <row r="85" spans="1:15" ht="30">
-      <c r="A85" s="89"/>
+      <c r="A85" s="91"/>
       <c r="B85" s="44"/>
       <c r="C85" s="44"/>
       <c r="D85" s="44"/>
@@ -6739,7 +6739,7 @@
       <c r="O85" s="44"/>
     </row>
     <row r="86" spans="1:15" ht="30">
-      <c r="A86" s="87"/>
+      <c r="A86" s="89"/>
       <c r="B86" s="44"/>
       <c r="C86" s="44"/>
       <c r="D86" s="44"/>
@@ -6756,7 +6756,7 @@
       <c r="O86" s="44"/>
     </row>
     <row r="87" spans="1:15" ht="30">
-      <c r="A87" s="88"/>
+      <c r="A87" s="90"/>
       <c r="B87" s="44"/>
       <c r="C87" s="44"/>
       <c r="D87" s="44"/>
@@ -6773,7 +6773,7 @@
       <c r="O87" s="44"/>
     </row>
     <row r="88" spans="1:15" ht="30">
-      <c r="A88" s="89"/>
+      <c r="A88" s="91"/>
       <c r="B88" s="44"/>
       <c r="C88" s="44"/>
       <c r="D88" s="44"/>
@@ -6790,7 +6790,7 @@
       <c r="O88" s="44"/>
     </row>
     <row r="89" spans="1:15" ht="30">
-      <c r="A89" s="87"/>
+      <c r="A89" s="89"/>
       <c r="B89" s="44"/>
       <c r="C89" s="44"/>
       <c r="D89" s="44"/>
@@ -6807,7 +6807,7 @@
       <c r="O89" s="44"/>
     </row>
     <row r="90" spans="1:15" ht="30">
-      <c r="A90" s="88"/>
+      <c r="A90" s="90"/>
       <c r="B90" s="44"/>
       <c r="C90" s="44"/>
       <c r="D90" s="44"/>
@@ -6824,7 +6824,7 @@
       <c r="O90" s="44"/>
     </row>
     <row r="91" spans="1:15" ht="30">
-      <c r="A91" s="89"/>
+      <c r="A91" s="91"/>
       <c r="B91" s="44"/>
       <c r="C91" s="44"/>
       <c r="D91" s="44"/>
@@ -6841,7 +6841,7 @@
       <c r="O91" s="44"/>
     </row>
     <row r="92" spans="1:15" ht="30">
-      <c r="A92" s="87"/>
+      <c r="A92" s="89"/>
       <c r="B92" s="44"/>
       <c r="C92" s="44"/>
       <c r="D92" s="44"/>
@@ -6858,7 +6858,7 @@
       <c r="O92" s="44"/>
     </row>
     <row r="93" spans="1:15" ht="30">
-      <c r="A93" s="88"/>
+      <c r="A93" s="90"/>
       <c r="B93" s="44"/>
       <c r="C93" s="44"/>
       <c r="D93" s="44"/>
@@ -6875,7 +6875,7 @@
       <c r="O93" s="44"/>
     </row>
     <row r="94" spans="1:15" ht="30">
-      <c r="A94" s="89"/>
+      <c r="A94" s="91"/>
       <c r="B94" s="44"/>
       <c r="C94" s="44"/>
       <c r="D94" s="44"/>
@@ -6892,7 +6892,7 @@
       <c r="O94" s="44"/>
     </row>
     <row r="95" spans="1:15" ht="30">
-      <c r="A95" s="87"/>
+      <c r="A95" s="89"/>
       <c r="B95" s="44"/>
       <c r="C95" s="44"/>
       <c r="D95" s="44"/>
@@ -6909,7 +6909,7 @@
       <c r="O95" s="44"/>
     </row>
     <row r="96" spans="1:15" ht="30">
-      <c r="A96" s="88"/>
+      <c r="A96" s="90"/>
       <c r="B96" s="44"/>
       <c r="C96" s="44"/>
       <c r="D96" s="44"/>
@@ -6926,7 +6926,7 @@
       <c r="O96" s="44"/>
     </row>
     <row r="97" spans="1:15" ht="30">
-      <c r="A97" s="89"/>
+      <c r="A97" s="91"/>
       <c r="B97" s="44"/>
       <c r="C97" s="44"/>
       <c r="D97" s="44"/>
@@ -6943,7 +6943,7 @@
       <c r="O97" s="44"/>
     </row>
     <row r="98" spans="1:15" ht="30">
-      <c r="A98" s="87"/>
+      <c r="A98" s="89"/>
       <c r="B98" s="44"/>
       <c r="C98" s="44"/>
       <c r="D98" s="44"/>
@@ -6960,7 +6960,7 @@
       <c r="O98" s="44"/>
     </row>
     <row r="99" spans="1:15" ht="30">
-      <c r="A99" s="88"/>
+      <c r="A99" s="90"/>
       <c r="B99" s="44"/>
       <c r="C99" s="44"/>
       <c r="D99" s="44"/>
@@ -6977,7 +6977,7 @@
       <c r="O99" s="44"/>
     </row>
     <row r="100" spans="1:15" ht="30">
-      <c r="A100" s="89"/>
+      <c r="A100" s="91"/>
       <c r="B100" s="44"/>
       <c r="C100" s="44"/>
       <c r="D100" s="44"/>
@@ -6994,7 +6994,7 @@
       <c r="O100" s="44"/>
     </row>
     <row r="101" spans="1:15" ht="30">
-      <c r="A101" s="87"/>
+      <c r="A101" s="89"/>
       <c r="B101" s="44"/>
       <c r="C101" s="44"/>
       <c r="D101" s="44"/>
@@ -7011,7 +7011,7 @@
       <c r="O101" s="44"/>
     </row>
     <row r="102" spans="1:15" ht="30">
-      <c r="A102" s="88"/>
+      <c r="A102" s="90"/>
       <c r="B102" s="44"/>
       <c r="C102" s="44"/>
       <c r="D102" s="44"/>
@@ -7028,7 +7028,7 @@
       <c r="O102" s="44"/>
     </row>
     <row r="103" spans="1:15" ht="30">
-      <c r="A103" s="89"/>
+      <c r="A103" s="91"/>
       <c r="B103" s="44"/>
       <c r="C103" s="44"/>
       <c r="D103" s="44"/>
@@ -7045,7 +7045,7 @@
       <c r="O103" s="44"/>
     </row>
     <row r="104" spans="1:15" ht="30">
-      <c r="A104" s="87"/>
+      <c r="A104" s="89"/>
       <c r="B104" s="44"/>
       <c r="C104" s="44"/>
       <c r="D104" s="44"/>
@@ -7062,7 +7062,7 @@
       <c r="O104" s="44"/>
     </row>
     <row r="105" spans="1:15" ht="30">
-      <c r="A105" s="88"/>
+      <c r="A105" s="90"/>
       <c r="B105" s="44"/>
       <c r="C105" s="44"/>
       <c r="D105" s="44"/>
@@ -7079,7 +7079,7 @@
       <c r="O105" s="44"/>
     </row>
     <row r="106" spans="1:15" ht="30">
-      <c r="A106" s="89"/>
+      <c r="A106" s="91"/>
       <c r="B106" s="44"/>
       <c r="C106" s="44"/>
       <c r="D106" s="44"/>
@@ -7096,7 +7096,7 @@
       <c r="O106" s="44"/>
     </row>
     <row r="107" spans="1:15" ht="30">
-      <c r="A107" s="87"/>
+      <c r="A107" s="89"/>
       <c r="B107" s="44"/>
       <c r="C107" s="44"/>
       <c r="D107" s="44"/>
@@ -7113,7 +7113,7 @@
       <c r="O107" s="44"/>
     </row>
     <row r="108" spans="1:15" ht="30">
-      <c r="A108" s="88"/>
+      <c r="A108" s="90"/>
       <c r="B108" s="44"/>
       <c r="C108" s="44"/>
       <c r="D108" s="44"/>
@@ -7130,7 +7130,7 @@
       <c r="O108" s="44"/>
     </row>
     <row r="109" spans="1:15" ht="30">
-      <c r="A109" s="89"/>
+      <c r="A109" s="91"/>
       <c r="B109" s="44"/>
       <c r="C109" s="44"/>
       <c r="D109" s="44"/>
@@ -7147,7 +7147,7 @@
       <c r="O109" s="44"/>
     </row>
     <row r="110" spans="1:15" ht="30">
-      <c r="A110" s="87"/>
+      <c r="A110" s="89"/>
       <c r="B110" s="44"/>
       <c r="C110" s="44"/>
       <c r="D110" s="44"/>
@@ -7164,7 +7164,7 @@
       <c r="O110" s="44"/>
     </row>
     <row r="111" spans="1:15" ht="30">
-      <c r="A111" s="88"/>
+      <c r="A111" s="90"/>
       <c r="B111" s="44"/>
       <c r="C111" s="44"/>
       <c r="D111" s="44"/>
@@ -7181,7 +7181,7 @@
       <c r="O111" s="44"/>
     </row>
     <row r="112" spans="1:15" ht="30">
-      <c r="A112" s="89"/>
+      <c r="A112" s="91"/>
       <c r="B112" s="44"/>
       <c r="C112" s="44"/>
       <c r="D112" s="44"/>
@@ -7198,7 +7198,7 @@
       <c r="O112" s="44"/>
     </row>
     <row r="113" spans="1:15" ht="30">
-      <c r="A113" s="87"/>
+      <c r="A113" s="89"/>
       <c r="B113" s="44"/>
       <c r="C113" s="44"/>
       <c r="D113" s="44"/>
@@ -7215,7 +7215,7 @@
       <c r="O113" s="44"/>
     </row>
     <row r="114" spans="1:15" ht="30">
-      <c r="A114" s="88"/>
+      <c r="A114" s="90"/>
       <c r="B114" s="44"/>
       <c r="C114" s="44"/>
       <c r="D114" s="44"/>
@@ -7232,7 +7232,7 @@
       <c r="O114" s="44"/>
     </row>
     <row r="115" spans="1:15" ht="30">
-      <c r="A115" s="89"/>
+      <c r="A115" s="91"/>
       <c r="B115" s="44"/>
       <c r="C115" s="44"/>
       <c r="D115" s="44"/>
@@ -7249,7 +7249,7 @@
       <c r="O115" s="44"/>
     </row>
     <row r="116" spans="1:15" ht="30">
-      <c r="A116" s="87"/>
+      <c r="A116" s="89"/>
       <c r="B116" s="44"/>
       <c r="C116" s="44"/>
       <c r="D116" s="44"/>
@@ -7266,7 +7266,7 @@
       <c r="O116" s="44"/>
     </row>
     <row r="117" spans="1:15" ht="30">
-      <c r="A117" s="88"/>
+      <c r="A117" s="90"/>
       <c r="B117" s="44"/>
       <c r="C117" s="44"/>
       <c r="D117" s="44"/>
@@ -7283,7 +7283,7 @@
       <c r="O117" s="44"/>
     </row>
     <row r="118" spans="1:15" ht="30">
-      <c r="A118" s="89"/>
+      <c r="A118" s="91"/>
       <c r="B118" s="44"/>
       <c r="C118" s="44"/>
       <c r="D118" s="44"/>
@@ -7300,7 +7300,7 @@
       <c r="O118" s="44"/>
     </row>
     <row r="119" spans="1:15" ht="30">
-      <c r="A119" s="87"/>
+      <c r="A119" s="89"/>
       <c r="B119" s="44"/>
       <c r="C119" s="44"/>
       <c r="D119" s="44"/>
@@ -7317,7 +7317,7 @@
       <c r="O119" s="44"/>
     </row>
     <row r="120" spans="1:15" ht="30">
-      <c r="A120" s="88"/>
+      <c r="A120" s="90"/>
       <c r="B120" s="44"/>
       <c r="C120" s="44"/>
       <c r="D120" s="44"/>
@@ -7334,7 +7334,7 @@
       <c r="O120" s="44"/>
     </row>
     <row r="121" spans="1:15" ht="30">
-      <c r="A121" s="89"/>
+      <c r="A121" s="91"/>
       <c r="B121" s="44"/>
       <c r="C121" s="44"/>
       <c r="D121" s="44"/>
@@ -7351,7 +7351,7 @@
       <c r="O121" s="44"/>
     </row>
     <row r="122" spans="1:15" ht="30">
-      <c r="A122" s="87"/>
+      <c r="A122" s="89"/>
       <c r="B122" s="44"/>
       <c r="C122" s="44"/>
       <c r="D122" s="44"/>
@@ -7368,7 +7368,7 @@
       <c r="O122" s="44"/>
     </row>
     <row r="123" spans="1:15" ht="30">
-      <c r="A123" s="88"/>
+      <c r="A123" s="90"/>
       <c r="B123" s="44"/>
       <c r="C123" s="44"/>
       <c r="D123" s="44"/>
@@ -7385,7 +7385,7 @@
       <c r="O123" s="44"/>
     </row>
     <row r="124" spans="1:15" ht="30">
-      <c r="A124" s="89"/>
+      <c r="A124" s="91"/>
       <c r="B124" s="44"/>
       <c r="C124" s="44"/>
       <c r="D124" s="44"/>
@@ -7402,7 +7402,7 @@
       <c r="O124" s="44"/>
     </row>
     <row r="125" spans="1:15" ht="30">
-      <c r="A125" s="87"/>
+      <c r="A125" s="89"/>
       <c r="B125" s="44"/>
       <c r="C125" s="44"/>
       <c r="D125" s="44"/>
@@ -7419,7 +7419,7 @@
       <c r="O125" s="44"/>
     </row>
     <row r="126" spans="1:15" ht="30">
-      <c r="A126" s="88"/>
+      <c r="A126" s="90"/>
       <c r="B126" s="44"/>
       <c r="C126" s="44"/>
       <c r="D126" s="44"/>
@@ -7436,7 +7436,7 @@
       <c r="O126" s="44"/>
     </row>
     <row r="127" spans="1:15" ht="30">
-      <c r="A127" s="89"/>
+      <c r="A127" s="91"/>
       <c r="B127" s="44"/>
       <c r="C127" s="44"/>
       <c r="D127" s="44"/>
@@ -7453,7 +7453,7 @@
       <c r="O127" s="44"/>
     </row>
     <row r="128" spans="1:15" ht="30">
-      <c r="A128" s="87"/>
+      <c r="A128" s="89"/>
       <c r="B128" s="44"/>
       <c r="C128" s="44"/>
       <c r="D128" s="44"/>
@@ -7470,7 +7470,7 @@
       <c r="O128" s="44"/>
     </row>
     <row r="129" spans="1:15" ht="30">
-      <c r="A129" s="88"/>
+      <c r="A129" s="90"/>
       <c r="B129" s="44"/>
       <c r="C129" s="44"/>
       <c r="D129" s="44"/>
@@ -7487,7 +7487,7 @@
       <c r="O129" s="44"/>
     </row>
     <row r="130" spans="1:15" ht="30">
-      <c r="A130" s="89"/>
+      <c r="A130" s="91"/>
       <c r="B130" s="44"/>
       <c r="C130" s="44"/>
       <c r="D130" s="44"/>
@@ -7504,7 +7504,7 @@
       <c r="O130" s="44"/>
     </row>
     <row r="131" spans="1:15" ht="30">
-      <c r="A131" s="87"/>
+      <c r="A131" s="89"/>
       <c r="B131" s="44"/>
       <c r="C131" s="44"/>
       <c r="D131" s="44"/>
@@ -7521,7 +7521,7 @@
       <c r="O131" s="44"/>
     </row>
     <row r="132" spans="1:15" ht="30">
-      <c r="A132" s="88"/>
+      <c r="A132" s="90"/>
       <c r="B132" s="44"/>
       <c r="C132" s="44"/>
       <c r="D132" s="44"/>
@@ -7538,7 +7538,7 @@
       <c r="O132" s="44"/>
     </row>
     <row r="133" spans="1:15" ht="30">
-      <c r="A133" s="89"/>
+      <c r="A133" s="91"/>
       <c r="B133" s="44"/>
       <c r="C133" s="44"/>
       <c r="D133" s="44"/>
@@ -7555,7 +7555,7 @@
       <c r="O133" s="44"/>
     </row>
     <row r="134" spans="1:15" ht="30">
-      <c r="A134" s="87"/>
+      <c r="A134" s="89"/>
       <c r="B134" s="44"/>
       <c r="C134" s="44"/>
       <c r="D134" s="44"/>
@@ -7572,7 +7572,7 @@
       <c r="O134" s="44"/>
     </row>
     <row r="135" spans="1:15" ht="30">
-      <c r="A135" s="88"/>
+      <c r="A135" s="90"/>
       <c r="B135" s="44"/>
       <c r="C135" s="44"/>
       <c r="D135" s="44"/>
@@ -7589,7 +7589,7 @@
       <c r="O135" s="44"/>
     </row>
     <row r="136" spans="1:15" ht="30">
-      <c r="A136" s="89"/>
+      <c r="A136" s="91"/>
       <c r="B136" s="44"/>
       <c r="C136" s="44"/>
       <c r="D136" s="44"/>
@@ -7606,7 +7606,7 @@
       <c r="O136" s="44"/>
     </row>
     <row r="137" spans="1:15" ht="30">
-      <c r="A137" s="87"/>
+      <c r="A137" s="89"/>
       <c r="B137" s="44"/>
       <c r="C137" s="44"/>
       <c r="D137" s="44"/>
@@ -7623,7 +7623,7 @@
       <c r="O137" s="44"/>
     </row>
     <row r="138" spans="1:15" ht="30">
-      <c r="A138" s="88"/>
+      <c r="A138" s="90"/>
       <c r="B138" s="44"/>
       <c r="C138" s="44"/>
       <c r="D138" s="44"/>
@@ -7640,7 +7640,7 @@
       <c r="O138" s="44"/>
     </row>
     <row r="139" spans="1:15" ht="30">
-      <c r="A139" s="89"/>
+      <c r="A139" s="91"/>
       <c r="B139" s="44"/>
       <c r="C139" s="44"/>
       <c r="D139" s="44"/>
@@ -7657,7 +7657,7 @@
       <c r="O139" s="44"/>
     </row>
     <row r="140" spans="1:15" ht="30">
-      <c r="A140" s="87"/>
+      <c r="A140" s="89"/>
       <c r="B140" s="44"/>
       <c r="C140" s="44"/>
       <c r="D140" s="44"/>
@@ -7674,7 +7674,7 @@
       <c r="O140" s="44"/>
     </row>
     <row r="141" spans="1:15" ht="30">
-      <c r="A141" s="88"/>
+      <c r="A141" s="90"/>
       <c r="B141" s="44"/>
       <c r="C141" s="44"/>
       <c r="D141" s="44"/>
@@ -7691,7 +7691,7 @@
       <c r="O141" s="44"/>
     </row>
     <row r="142" spans="1:15" ht="30">
-      <c r="A142" s="89"/>
+      <c r="A142" s="91"/>
       <c r="B142" s="44"/>
       <c r="C142" s="44"/>
       <c r="D142" s="44"/>
@@ -7708,7 +7708,7 @@
       <c r="O142" s="44"/>
     </row>
     <row r="143" spans="1:15" ht="30">
-      <c r="A143" s="87"/>
+      <c r="A143" s="89"/>
       <c r="B143" s="44"/>
       <c r="C143" s="44"/>
       <c r="D143" s="44"/>
@@ -7725,7 +7725,7 @@
       <c r="O143" s="44"/>
     </row>
     <row r="144" spans="1:15" ht="30">
-      <c r="A144" s="88"/>
+      <c r="A144" s="90"/>
       <c r="B144" s="44"/>
       <c r="C144" s="44"/>
       <c r="D144" s="44"/>
@@ -7742,7 +7742,7 @@
       <c r="O144" s="44"/>
     </row>
     <row r="145" spans="1:15" ht="30">
-      <c r="A145" s="89"/>
+      <c r="A145" s="91"/>
       <c r="B145" s="44"/>
       <c r="C145" s="44"/>
       <c r="D145" s="44"/>
@@ -7759,7 +7759,7 @@
       <c r="O145" s="44"/>
     </row>
     <row r="146" spans="1:15" ht="30">
-      <c r="A146" s="87"/>
+      <c r="A146" s="89"/>
       <c r="B146" s="44"/>
       <c r="C146" s="44"/>
       <c r="D146" s="44"/>
@@ -7776,7 +7776,7 @@
       <c r="O146" s="44"/>
     </row>
     <row r="147" spans="1:15" ht="30">
-      <c r="A147" s="88"/>
+      <c r="A147" s="90"/>
       <c r="B147" s="44"/>
       <c r="C147" s="44"/>
       <c r="D147" s="44"/>
@@ -7793,7 +7793,7 @@
       <c r="O147" s="44"/>
     </row>
     <row r="148" spans="1:15" ht="30">
-      <c r="A148" s="89"/>
+      <c r="A148" s="91"/>
       <c r="B148" s="44"/>
       <c r="C148" s="44"/>
       <c r="D148" s="44"/>
@@ -7810,7 +7810,7 @@
       <c r="O148" s="44"/>
     </row>
     <row r="149" spans="1:15" ht="30">
-      <c r="A149" s="87"/>
+      <c r="A149" s="89"/>
       <c r="B149" s="44"/>
       <c r="C149" s="44"/>
       <c r="D149" s="44"/>
@@ -7827,7 +7827,7 @@
       <c r="O149" s="44"/>
     </row>
     <row r="150" spans="1:15" ht="30">
-      <c r="A150" s="88"/>
+      <c r="A150" s="90"/>
       <c r="B150" s="44"/>
       <c r="C150" s="44"/>
       <c r="D150" s="44"/>
@@ -7844,7 +7844,7 @@
       <c r="O150" s="44"/>
     </row>
     <row r="151" spans="1:15" ht="30">
-      <c r="A151" s="89"/>
+      <c r="A151" s="91"/>
       <c r="B151" s="44"/>
       <c r="C151" s="44"/>
       <c r="D151" s="44"/>
@@ -7861,7 +7861,7 @@
       <c r="O151" s="44"/>
     </row>
     <row r="152" spans="1:15" ht="30">
-      <c r="A152" s="87"/>
+      <c r="A152" s="89"/>
       <c r="B152" s="44"/>
       <c r="C152" s="44"/>
       <c r="D152" s="44"/>
@@ -7878,7 +7878,7 @@
       <c r="O152" s="44"/>
     </row>
     <row r="153" spans="1:15" ht="30">
-      <c r="A153" s="88"/>
+      <c r="A153" s="90"/>
       <c r="B153" s="44"/>
       <c r="C153" s="44"/>
       <c r="D153" s="44"/>
@@ -7895,7 +7895,7 @@
       <c r="O153" s="44"/>
     </row>
     <row r="154" spans="1:15" ht="30">
-      <c r="A154" s="89"/>
+      <c r="A154" s="91"/>
       <c r="B154" s="44"/>
       <c r="C154" s="44"/>
       <c r="D154" s="44"/>
@@ -7912,7 +7912,7 @@
       <c r="O154" s="44"/>
     </row>
     <row r="155" spans="1:15" ht="30">
-      <c r="A155" s="87"/>
+      <c r="A155" s="89"/>
       <c r="B155" s="44"/>
       <c r="C155" s="44"/>
       <c r="D155" s="44"/>
@@ -7929,7 +7929,7 @@
       <c r="O155" s="44"/>
     </row>
     <row r="156" spans="1:15" ht="30">
-      <c r="A156" s="88"/>
+      <c r="A156" s="90"/>
       <c r="B156" s="44"/>
       <c r="C156" s="44"/>
       <c r="D156" s="44"/>
@@ -7946,7 +7946,7 @@
       <c r="O156" s="44"/>
     </row>
     <row r="157" spans="1:15" ht="30">
-      <c r="A157" s="89"/>
+      <c r="A157" s="91"/>
       <c r="B157" s="44"/>
       <c r="C157" s="44"/>
       <c r="D157" s="44"/>
@@ -7963,7 +7963,7 @@
       <c r="O157" s="44"/>
     </row>
     <row r="158" spans="1:15" ht="30">
-      <c r="A158" s="87"/>
+      <c r="A158" s="89"/>
       <c r="B158" s="44"/>
       <c r="C158" s="44"/>
       <c r="D158" s="44"/>
@@ -7980,7 +7980,7 @@
       <c r="O158" s="44"/>
     </row>
     <row r="159" spans="1:15" ht="30">
-      <c r="A159" s="88"/>
+      <c r="A159" s="90"/>
       <c r="B159" s="44"/>
       <c r="C159" s="44"/>
       <c r="D159" s="44"/>
@@ -7997,7 +7997,7 @@
       <c r="O159" s="44"/>
     </row>
     <row r="160" spans="1:15" ht="30">
-      <c r="A160" s="89"/>
+      <c r="A160" s="91"/>
       <c r="B160" s="44"/>
       <c r="C160" s="44"/>
       <c r="D160" s="44"/>
@@ -8014,7 +8014,7 @@
       <c r="O160" s="44"/>
     </row>
     <row r="161" spans="1:15" ht="30">
-      <c r="A161" s="87"/>
+      <c r="A161" s="89"/>
       <c r="B161" s="44"/>
       <c r="C161" s="44"/>
       <c r="D161" s="44"/>
@@ -8031,7 +8031,7 @@
       <c r="O161" s="44"/>
     </row>
     <row r="162" spans="1:15" ht="30">
-      <c r="A162" s="88"/>
+      <c r="A162" s="90"/>
       <c r="B162" s="44"/>
       <c r="C162" s="44"/>
       <c r="D162" s="44"/>
@@ -8048,7 +8048,7 @@
       <c r="O162" s="44"/>
     </row>
     <row r="163" spans="1:15" ht="30">
-      <c r="A163" s="89"/>
+      <c r="A163" s="91"/>
       <c r="B163" s="44"/>
       <c r="C163" s="44"/>
       <c r="D163" s="44"/>
@@ -8065,7 +8065,7 @@
       <c r="O163" s="44"/>
     </row>
     <row r="164" spans="1:15" ht="30">
-      <c r="A164" s="87"/>
+      <c r="A164" s="89"/>
       <c r="B164" s="44"/>
       <c r="C164" s="44"/>
       <c r="D164" s="44"/>
@@ -8082,7 +8082,7 @@
       <c r="O164" s="44"/>
     </row>
     <row r="165" spans="1:15" ht="30">
-      <c r="A165" s="88"/>
+      <c r="A165" s="90"/>
       <c r="B165" s="44"/>
       <c r="C165" s="44"/>
       <c r="D165" s="44"/>
@@ -8099,7 +8099,7 @@
       <c r="O165" s="44"/>
     </row>
     <row r="166" spans="1:15" ht="30">
-      <c r="A166" s="89"/>
+      <c r="A166" s="91"/>
       <c r="B166" s="44"/>
       <c r="C166" s="44"/>
       <c r="D166" s="44"/>
@@ -8116,7 +8116,7 @@
       <c r="O166" s="44"/>
     </row>
     <row r="167" spans="1:15" ht="30">
-      <c r="A167" s="87"/>
+      <c r="A167" s="89"/>
       <c r="B167" s="44"/>
       <c r="C167" s="44"/>
       <c r="D167" s="44"/>
@@ -8133,7 +8133,7 @@
       <c r="O167" s="44"/>
     </row>
     <row r="168" spans="1:15" ht="30">
-      <c r="A168" s="88"/>
+      <c r="A168" s="90"/>
       <c r="B168" s="44"/>
       <c r="C168" s="44"/>
       <c r="D168" s="44"/>
@@ -8150,7 +8150,7 @@
       <c r="O168" s="44"/>
     </row>
     <row r="169" spans="1:15" ht="30">
-      <c r="A169" s="89"/>
+      <c r="A169" s="91"/>
       <c r="B169" s="44"/>
       <c r="C169" s="44"/>
       <c r="D169" s="44"/>
@@ -8167,7 +8167,7 @@
       <c r="O169" s="44"/>
     </row>
     <row r="170" spans="1:15" ht="30">
-      <c r="A170" s="87"/>
+      <c r="A170" s="89"/>
       <c r="B170" s="44"/>
       <c r="C170" s="44"/>
       <c r="D170" s="44"/>
@@ -8184,7 +8184,7 @@
       <c r="O170" s="44"/>
     </row>
     <row r="171" spans="1:15" ht="30">
-      <c r="A171" s="88"/>
+      <c r="A171" s="90"/>
       <c r="B171" s="44"/>
       <c r="C171" s="44"/>
       <c r="D171" s="44"/>
@@ -8201,7 +8201,7 @@
       <c r="O171" s="44"/>
     </row>
     <row r="172" spans="1:15" ht="30">
-      <c r="A172" s="89"/>
+      <c r="A172" s="91"/>
       <c r="B172" s="44"/>
       <c r="C172" s="44"/>
       <c r="D172" s="44"/>
@@ -8218,7 +8218,7 @@
       <c r="O172" s="44"/>
     </row>
     <row r="173" spans="1:15" ht="30">
-      <c r="A173" s="87"/>
+      <c r="A173" s="89"/>
       <c r="B173" s="44"/>
       <c r="C173" s="44"/>
       <c r="D173" s="44"/>
@@ -8235,7 +8235,7 @@
       <c r="O173" s="44"/>
     </row>
     <row r="174" spans="1:15" ht="30">
-      <c r="A174" s="88"/>
+      <c r="A174" s="90"/>
       <c r="B174" s="44"/>
       <c r="C174" s="44"/>
       <c r="D174" s="44"/>
@@ -8252,7 +8252,7 @@
       <c r="O174" s="44"/>
     </row>
     <row r="175" spans="1:15" ht="30">
-      <c r="A175" s="89"/>
+      <c r="A175" s="91"/>
       <c r="B175" s="44"/>
       <c r="C175" s="44"/>
       <c r="D175" s="44"/>
@@ -8269,7 +8269,7 @@
       <c r="O175" s="44"/>
     </row>
     <row r="176" spans="1:15" ht="30">
-      <c r="A176" s="87"/>
+      <c r="A176" s="89"/>
       <c r="B176" s="44"/>
       <c r="C176" s="44"/>
       <c r="D176" s="44"/>
@@ -8286,7 +8286,7 @@
       <c r="O176" s="44"/>
     </row>
     <row r="177" spans="1:15" ht="30">
-      <c r="A177" s="88"/>
+      <c r="A177" s="90"/>
       <c r="B177" s="44"/>
       <c r="C177" s="44"/>
       <c r="D177" s="44"/>
@@ -8303,7 +8303,7 @@
       <c r="O177" s="44"/>
     </row>
     <row r="178" spans="1:15" ht="30">
-      <c r="A178" s="89"/>
+      <c r="A178" s="91"/>
       <c r="B178" s="44"/>
       <c r="C178" s="44"/>
       <c r="D178" s="44"/>
@@ -8320,7 +8320,7 @@
       <c r="O178" s="44"/>
     </row>
     <row r="179" spans="1:15" ht="30">
-      <c r="A179" s="87"/>
+      <c r="A179" s="89"/>
       <c r="B179" s="44"/>
       <c r="C179" s="44"/>
       <c r="D179" s="44"/>
@@ -8337,7 +8337,7 @@
       <c r="O179" s="44"/>
     </row>
     <row r="180" spans="1:15" ht="30">
-      <c r="A180" s="88"/>
+      <c r="A180" s="90"/>
       <c r="B180" s="44"/>
       <c r="C180" s="44"/>
       <c r="D180" s="44"/>
@@ -8354,7 +8354,7 @@
       <c r="O180" s="44"/>
     </row>
     <row r="181" spans="1:15" ht="30">
-      <c r="A181" s="89"/>
+      <c r="A181" s="91"/>
       <c r="B181" s="44"/>
       <c r="C181" s="44"/>
       <c r="D181" s="44"/>
@@ -8371,7 +8371,7 @@
       <c r="O181" s="44"/>
     </row>
     <row r="182" spans="1:15" ht="30">
-      <c r="A182" s="87"/>
+      <c r="A182" s="89"/>
       <c r="B182" s="44"/>
       <c r="C182" s="44"/>
       <c r="D182" s="44"/>
@@ -8388,7 +8388,7 @@
       <c r="O182" s="44"/>
     </row>
     <row r="183" spans="1:15" ht="30">
-      <c r="A183" s="88"/>
+      <c r="A183" s="90"/>
       <c r="B183" s="44"/>
       <c r="C183" s="44"/>
       <c r="D183" s="44"/>
@@ -8405,7 +8405,7 @@
       <c r="O183" s="44"/>
     </row>
     <row r="184" spans="1:15" ht="30">
-      <c r="A184" s="89"/>
+      <c r="A184" s="91"/>
       <c r="B184" s="44"/>
       <c r="C184" s="44"/>
       <c r="D184" s="44"/>
@@ -10908,27 +10908,19 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="O1:Q3"/>
-    <mergeCell ref="U1:W3"/>
-    <mergeCell ref="C1:E3"/>
-    <mergeCell ref="B1:B39"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A77:A79"/>
-    <mergeCell ref="A80:A82"/>
-    <mergeCell ref="I1:K3"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="A62:A64"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="A74:A76"/>
-    <mergeCell ref="A116:A118"/>
-    <mergeCell ref="A119:A121"/>
-    <mergeCell ref="A122:A124"/>
-    <mergeCell ref="A83:A85"/>
-    <mergeCell ref="A86:A88"/>
+    <mergeCell ref="A149:A151"/>
+    <mergeCell ref="A152:A154"/>
+    <mergeCell ref="A131:A133"/>
+    <mergeCell ref="A134:A136"/>
+    <mergeCell ref="A179:A181"/>
+    <mergeCell ref="A182:A184"/>
+    <mergeCell ref="A158:A160"/>
+    <mergeCell ref="A161:A163"/>
+    <mergeCell ref="A164:A166"/>
+    <mergeCell ref="A167:A169"/>
+    <mergeCell ref="A170:A172"/>
+    <mergeCell ref="A173:A175"/>
+    <mergeCell ref="A176:A178"/>
     <mergeCell ref="A155:A157"/>
     <mergeCell ref="A89:A91"/>
     <mergeCell ref="A95:A97"/>
@@ -10943,21 +10935,29 @@
     <mergeCell ref="A128:A130"/>
     <mergeCell ref="A137:A139"/>
     <mergeCell ref="A140:A142"/>
-    <mergeCell ref="A179:A181"/>
-    <mergeCell ref="A182:A184"/>
-    <mergeCell ref="A158:A160"/>
-    <mergeCell ref="A161:A163"/>
-    <mergeCell ref="A164:A166"/>
-    <mergeCell ref="A167:A169"/>
-    <mergeCell ref="A170:A172"/>
-    <mergeCell ref="A173:A175"/>
-    <mergeCell ref="A176:A178"/>
     <mergeCell ref="A143:A145"/>
     <mergeCell ref="A146:A148"/>
-    <mergeCell ref="A149:A151"/>
-    <mergeCell ref="A152:A154"/>
-    <mergeCell ref="A131:A133"/>
-    <mergeCell ref="A134:A136"/>
+    <mergeCell ref="A116:A118"/>
+    <mergeCell ref="A119:A121"/>
+    <mergeCell ref="A122:A124"/>
+    <mergeCell ref="A83:A85"/>
+    <mergeCell ref="A86:A88"/>
+    <mergeCell ref="A77:A79"/>
+    <mergeCell ref="A80:A82"/>
+    <mergeCell ref="I1:K3"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="A74:A76"/>
+    <mergeCell ref="O1:Q3"/>
+    <mergeCell ref="U1:W3"/>
+    <mergeCell ref="C1:E3"/>
+    <mergeCell ref="B1:B39"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A19:A21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10968,7 +10968,7 @@
   <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:A10"/>
+      <selection activeCell="A11" sqref="A11:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -10978,31 +10978,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="12.75">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="95" t="s">
+      <c r="B1" s="98" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="44.25" customHeight="1">
-      <c r="A2" s="53"/>
-      <c r="B2" s="53"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
     </row>
     <row r="3" spans="1:2" ht="42.75" customHeight="1">
-      <c r="A3" s="96" t="s">
+      <c r="A3" s="99" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="94" t="s">
+      <c r="B3" s="97" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="1.5" customHeight="1">
-      <c r="A4" s="69"/>
-      <c r="B4" s="65"/>
+      <c r="A4" s="70"/>
+      <c r="B4" s="66"/>
     </row>
     <row r="5" spans="1:2" ht="12.75">
-      <c r="A5" s="93" t="s">
+      <c r="A5" s="100" t="s">
         <v>64</v>
       </c>
       <c r="B5" s="92" t="s">
@@ -11010,11 +11010,11 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="12.75">
-      <c r="A6" s="69"/>
-      <c r="B6" s="65"/>
+      <c r="A6" s="70"/>
+      <c r="B6" s="66"/>
     </row>
     <row r="7" spans="1:2" ht="12.75">
-      <c r="A7" s="93" t="s">
+      <c r="A7" s="100" t="s">
         <v>66</v>
       </c>
       <c r="B7" s="92" t="s">
@@ -11022,11 +11022,11 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="12.75">
-      <c r="A8" s="69"/>
-      <c r="B8" s="65"/>
+      <c r="A8" s="70"/>
+      <c r="B8" s="66"/>
     </row>
     <row r="9" spans="1:2" ht="12.75">
-      <c r="A9" s="93" t="s">
+      <c r="A9" s="100" t="s">
         <v>68</v>
       </c>
       <c r="B9" s="92" t="s">
@@ -11034,11 +11034,11 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="12.75">
-      <c r="A10" s="69"/>
-      <c r="B10" s="65"/>
+      <c r="A10" s="70"/>
+      <c r="B10" s="66"/>
     </row>
     <row r="11" spans="1:2" ht="12.75">
-      <c r="A11" s="93" t="s">
+      <c r="A11" s="100" t="s">
         <v>70</v>
       </c>
       <c r="B11" s="92" t="s">
@@ -11046,11 +11046,11 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="12.75">
-      <c r="A12" s="69"/>
-      <c r="B12" s="65"/>
+      <c r="A12" s="70"/>
+      <c r="B12" s="66"/>
     </row>
     <row r="13" spans="1:2" ht="12.75">
-      <c r="A13" s="93" t="s">
+      <c r="A13" s="100" t="s">
         <v>72</v>
       </c>
       <c r="B13" s="92" t="s">
@@ -11058,11 +11058,11 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="12.75">
-      <c r="A14" s="69"/>
-      <c r="B14" s="65"/>
+      <c r="A14" s="70"/>
+      <c r="B14" s="66"/>
     </row>
     <row r="15" spans="1:2" ht="12.75">
-      <c r="A15" s="93" t="s">
+      <c r="A15" s="100" t="s">
         <v>74</v>
       </c>
       <c r="B15" s="92" t="s">
@@ -11070,11 +11070,11 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="12.75">
-      <c r="A16" s="69"/>
-      <c r="B16" s="65"/>
+      <c r="A16" s="70"/>
+      <c r="B16" s="66"/>
     </row>
     <row r="17" spans="1:2" ht="12.75">
-      <c r="A17" s="93" t="s">
+      <c r="A17" s="100" t="s">
         <v>76</v>
       </c>
       <c r="B17" s="92" t="s">
@@ -11082,11 +11082,11 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="12.75">
-      <c r="A18" s="69"/>
-      <c r="B18" s="65"/>
+      <c r="A18" s="70"/>
+      <c r="B18" s="66"/>
     </row>
     <row r="19" spans="1:2" ht="12.75">
-      <c r="A19" s="93" t="s">
+      <c r="A19" s="100" t="s">
         <v>78</v>
       </c>
       <c r="B19" s="92" t="s">
@@ -11094,94 +11094,84 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="12.75">
-      <c r="A20" s="69"/>
-      <c r="B20" s="65"/>
+      <c r="A20" s="70"/>
+      <c r="B20" s="66"/>
     </row>
     <row r="21" spans="1:2" ht="12.75">
-      <c r="A21" s="97"/>
-      <c r="B21" s="99"/>
+      <c r="A21" s="93"/>
+      <c r="B21" s="94"/>
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A22" s="53"/>
-      <c r="B22" s="53"/>
+      <c r="A22" s="51"/>
+      <c r="B22" s="51"/>
     </row>
     <row r="23" spans="1:2" ht="12.75">
-      <c r="A23" s="97"/>
-      <c r="B23" s="99"/>
+      <c r="A23" s="93"/>
+      <c r="B23" s="94"/>
     </row>
     <row r="24" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A24" s="53"/>
-      <c r="B24" s="53"/>
+      <c r="A24" s="51"/>
+      <c r="B24" s="51"/>
     </row>
     <row r="25" spans="1:2" ht="12.75">
-      <c r="A25" s="97"/>
-      <c r="B25" s="99"/>
+      <c r="A25" s="93"/>
+      <c r="B25" s="94"/>
     </row>
     <row r="26" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A26" s="53"/>
-      <c r="B26" s="53"/>
+      <c r="A26" s="51"/>
+      <c r="B26" s="51"/>
     </row>
     <row r="27" spans="1:2" ht="12.75">
-      <c r="A27" s="97"/>
-      <c r="B27" s="99"/>
+      <c r="A27" s="93"/>
+      <c r="B27" s="94"/>
     </row>
     <row r="28" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A28" s="53"/>
-      <c r="B28" s="53"/>
+      <c r="A28" s="51"/>
+      <c r="B28" s="51"/>
     </row>
     <row r="29" spans="1:2" ht="12.75">
-      <c r="A29" s="97"/>
-      <c r="B29" s="99"/>
+      <c r="A29" s="93"/>
+      <c r="B29" s="94"/>
     </row>
     <row r="30" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A30" s="53"/>
-      <c r="B30" s="53"/>
+      <c r="A30" s="51"/>
+      <c r="B30" s="51"/>
     </row>
     <row r="31" spans="1:2" ht="12.75">
-      <c r="A31" s="98"/>
-      <c r="B31" s="100"/>
+      <c r="A31" s="96"/>
+      <c r="B31" s="95"/>
     </row>
     <row r="32" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A32" s="53"/>
-      <c r="B32" s="53"/>
+      <c r="A32" s="51"/>
+      <c r="B32" s="51"/>
     </row>
     <row r="33" spans="1:2" ht="12.75">
-      <c r="A33" s="98"/>
-      <c r="B33" s="100"/>
+      <c r="A33" s="96"/>
+      <c r="B33" s="95"/>
     </row>
     <row r="34" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A34" s="53"/>
-      <c r="B34" s="53"/>
+      <c r="A34" s="51"/>
+      <c r="B34" s="51"/>
     </row>
     <row r="35" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A35" s="53"/>
+      <c r="A35" s="51"/>
     </row>
     <row r="36" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A36" s="53"/>
+      <c r="A36" s="51"/>
     </row>
     <row r="37" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A37" s="53"/>
+      <c r="A37" s="51"/>
     </row>
     <row r="38" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A38" s="53"/>
+      <c r="A38" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
@@ -11198,11 +11188,21 @@
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A33:A34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11226,11 +11226,11 @@
       <c r="A1" s="102" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="53"/>
+      <c r="B1" s="51"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A2" s="53"/>
-      <c r="B2" s="53"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
     </row>
     <row r="3" spans="1:2" ht="45">
       <c r="A3" s="17" t="s">
@@ -11321,83 +11321,75 @@
       <c r="B17" s="101"/>
     </row>
     <row r="18" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A18" s="53"/>
-      <c r="B18" s="53"/>
+      <c r="A18" s="51"/>
+      <c r="B18" s="51"/>
     </row>
     <row r="19" spans="1:2" ht="12.75">
       <c r="A19" s="101"/>
       <c r="B19" s="101"/>
     </row>
     <row r="20" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A20" s="53"/>
-      <c r="B20" s="53"/>
+      <c r="A20" s="51"/>
+      <c r="B20" s="51"/>
     </row>
     <row r="21" spans="1:2" ht="12.75">
       <c r="A21" s="101"/>
       <c r="B21" s="101"/>
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A22" s="53"/>
-      <c r="B22" s="53"/>
+      <c r="A22" s="51"/>
+      <c r="B22" s="51"/>
     </row>
     <row r="23" spans="1:2" ht="12.75">
       <c r="A23" s="101"/>
       <c r="B23" s="101"/>
     </row>
     <row r="24" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A24" s="53"/>
-      <c r="B24" s="53"/>
+      <c r="A24" s="51"/>
+      <c r="B24" s="51"/>
     </row>
     <row r="25" spans="1:2" ht="12.75">
       <c r="A25" s="101"/>
       <c r="B25" s="101"/>
     </row>
     <row r="26" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A26" s="53"/>
-      <c r="B26" s="53"/>
+      <c r="A26" s="51"/>
+      <c r="B26" s="51"/>
     </row>
     <row r="27" spans="1:2" ht="12.75">
       <c r="A27" s="101"/>
       <c r="B27" s="101"/>
     </row>
     <row r="28" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A28" s="53"/>
-      <c r="B28" s="53"/>
+      <c r="A28" s="51"/>
+      <c r="B28" s="51"/>
     </row>
     <row r="29" spans="1:2" ht="12.75">
       <c r="A29" s="101"/>
       <c r="B29" s="101"/>
     </row>
     <row r="30" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A30" s="53"/>
-      <c r="B30" s="53"/>
+      <c r="A30" s="51"/>
+      <c r="B30" s="51"/>
     </row>
     <row r="31" spans="1:2" ht="12.75">
-      <c r="A31" s="81"/>
-      <c r="B31" s="81"/>
+      <c r="A31" s="82"/>
+      <c r="B31" s="82"/>
     </row>
     <row r="32" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A32" s="53"/>
-      <c r="B32" s="53"/>
+      <c r="A32" s="51"/>
+      <c r="B32" s="51"/>
     </row>
     <row r="33" spans="1:2" ht="12.75">
-      <c r="A33" s="81"/>
-      <c r="B33" s="81"/>
+      <c r="A33" s="82"/>
+      <c r="B33" s="82"/>
     </row>
     <row r="34" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A34" s="53"/>
-      <c r="B34" s="53"/>
+      <c r="A34" s="51"/>
+      <c r="B34" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B29:B30"/>
     <mergeCell ref="B31:B32"/>
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="B27:B28"/>
@@ -11409,6 +11401,14 @@
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B29:B30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11428,188 +11428,170 @@
     <col min="2" max="2" width="117.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="83" t="s">
+    <row r="1" spans="1:2" ht="12.75">
+      <c r="A1" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="95" t="s">
+      <c r="B1" s="98" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A2" s="53"/>
-      <c r="B2" s="53"/>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="104" t="s">
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
+    </row>
+    <row r="3" spans="1:2" ht="12.75">
+      <c r="A3" s="103" t="s">
         <v>82</v>
       </c>
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="104" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A4" s="53"/>
-      <c r="B4" s="53"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="103" t="s">
+      <c r="A4" s="51"/>
+      <c r="B4" s="51"/>
+    </row>
+    <row r="5" spans="1:2" ht="12.75">
+      <c r="A5" s="104" t="s">
         <v>84</v>
       </c>
-      <c r="B5" s="103" t="s">
+      <c r="B5" s="104" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A6" s="53"/>
-      <c r="B6" s="53"/>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="103" t="s">
+      <c r="A6" s="51"/>
+      <c r="B6" s="51"/>
+    </row>
+    <row r="7" spans="1:2" ht="12.75">
+      <c r="A7" s="104" t="s">
         <v>86</v>
       </c>
-      <c r="B7" s="103" t="s">
+      <c r="B7" s="104" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A8" s="53"/>
-      <c r="B8" s="53"/>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="103" t="s">
+      <c r="A8" s="51"/>
+      <c r="B8" s="51"/>
+    </row>
+    <row r="9" spans="1:2" ht="12.75">
+      <c r="A9" s="104" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="103" t="s">
+      <c r="B9" s="104" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A10" s="53"/>
-      <c r="B10" s="53"/>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="103" t="s">
+      <c r="A10" s="51"/>
+      <c r="B10" s="51"/>
+    </row>
+    <row r="11" spans="1:2" ht="12.75">
+      <c r="A11" s="104" t="s">
         <v>90</v>
       </c>
-      <c r="B11" s="103" t="s">
+      <c r="B11" s="104" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A12" s="53"/>
-      <c r="B12" s="53"/>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="103" t="s">
+      <c r="A12" s="51"/>
+      <c r="B12" s="51"/>
+    </row>
+    <row r="13" spans="1:2" ht="12.75">
+      <c r="A13" s="104" t="s">
         <v>92</v>
       </c>
-      <c r="B13" s="104"/>
+      <c r="B13" s="103"/>
     </row>
     <row r="14" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A14" s="53"/>
-      <c r="B14" s="53"/>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="104"/>
-      <c r="B15" s="104"/>
+      <c r="A14" s="51"/>
+      <c r="B14" s="51"/>
+    </row>
+    <row r="15" spans="1:2" ht="12.75">
+      <c r="A15" s="103"/>
+      <c r="B15" s="103"/>
     </row>
     <row r="16" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A16" s="53"/>
-      <c r="B16" s="53"/>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="104"/>
-      <c r="B17" s="104"/>
+      <c r="A16" s="51"/>
+      <c r="B16" s="51"/>
+    </row>
+    <row r="17" spans="1:2" ht="12.75">
+      <c r="A17" s="103"/>
+      <c r="B17" s="103"/>
     </row>
     <row r="18" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A18" s="53"/>
-      <c r="B18" s="53"/>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="104"/>
-      <c r="B19" s="104"/>
+      <c r="A18" s="51"/>
+      <c r="B18" s="51"/>
+    </row>
+    <row r="19" spans="1:2" ht="12.75">
+      <c r="A19" s="103"/>
+      <c r="B19" s="103"/>
     </row>
     <row r="20" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A20" s="53"/>
-      <c r="B20" s="53"/>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="104"/>
-      <c r="B21" s="104"/>
+      <c r="A20" s="51"/>
+      <c r="B20" s="51"/>
+    </row>
+    <row r="21" spans="1:2" ht="12.75">
+      <c r="A21" s="103"/>
+      <c r="B21" s="103"/>
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A22" s="53"/>
-      <c r="B22" s="53"/>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="104"/>
-      <c r="B23" s="104"/>
+      <c r="A22" s="51"/>
+      <c r="B22" s="51"/>
+    </row>
+    <row r="23" spans="1:2" ht="12.75">
+      <c r="A23" s="103"/>
+      <c r="B23" s="103"/>
     </row>
     <row r="24" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A24" s="53"/>
-      <c r="B24" s="53"/>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="104"/>
-      <c r="B25" s="104"/>
+      <c r="A24" s="51"/>
+      <c r="B24" s="51"/>
+    </row>
+    <row r="25" spans="1:2" ht="12.75">
+      <c r="A25" s="103"/>
+      <c r="B25" s="103"/>
     </row>
     <row r="26" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A26" s="53"/>
-      <c r="B26" s="53"/>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="104"/>
-      <c r="B27" s="104"/>
+      <c r="A26" s="51"/>
+      <c r="B26" s="51"/>
+    </row>
+    <row r="27" spans="1:2" ht="12.75">
+      <c r="A27" s="103"/>
+      <c r="B27" s="103"/>
     </row>
     <row r="28" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A28" s="53"/>
-      <c r="B28" s="53"/>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="104"/>
-      <c r="B29" s="104"/>
+      <c r="A28" s="51"/>
+      <c r="B28" s="51"/>
+    </row>
+    <row r="29" spans="1:2" ht="12.75">
+      <c r="A29" s="103"/>
+      <c r="B29" s="103"/>
     </row>
     <row r="30" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A30" s="53"/>
-      <c r="B30" s="53"/>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="A30" s="51"/>
+      <c r="B30" s="51"/>
+    </row>
+    <row r="31" spans="1:2" ht="12.75">
       <c r="A31" s="105"/>
       <c r="B31" s="105"/>
     </row>
     <row r="32" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A32" s="53"/>
-      <c r="B32" s="53"/>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="A32" s="51"/>
+      <c r="B32" s="51"/>
+    </row>
+    <row r="33" spans="1:2" ht="12.75">
       <c r="A33" s="105"/>
       <c r="B33" s="105"/>
     </row>
     <row r="34" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A34" s="53"/>
-      <c r="B34" s="53"/>
+      <c r="A34" s="51"/>
+      <c r="B34" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A27:A28"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B27:B28"/>
@@ -11626,6 +11608,24 @@
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
